--- a/test/megareport.xlsx
+++ b/test/megareport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t xml:space="preserve">TAS SUMMARY  </t>
   </si>
@@ -190,9 +190,6 @@
       </rPr>
       <t xml:space="preserve">Teaching (T), Research (R), or 50:50 split </t>
     </r>
-  </si>
-  <si>
-    <t>7141/100249</t>
   </si>
 </sst>
 </file>
@@ -493,57 +490,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,6 +563,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,30 +893,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="47" customWidth="1"/>
-    <col min="12" max="12" width="12" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="47" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.7109375" style="47" customWidth="1"/>
-    <col min="18" max="20" width="14.85546875" style="47" customWidth="1"/>
-    <col min="21" max="23" width="14.7109375" style="47" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="12" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="30" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.7109375" style="30" customWidth="1"/>
+    <col min="18" max="20" width="14.85546875" style="30" customWidth="1"/>
+    <col min="21" max="23" width="14.7109375" style="30" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="30" customWidth="1"/>
     <col min="25" max="25" width="2" style="5" customWidth="1"/>
     <col min="26" max="26" width="12" style="5" customWidth="1"/>
     <col min="27" max="27" width="12.7109375" style="5"/>
@@ -2667,15 +2664,15 @@
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2709,7 +2706,7 @@
     <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2745,15 +2742,15 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2810,1171 +2807,1121 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="12" t="s">
+      <c r="AC7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AD7" s="13"/>
+      <c r="AD7" s="37"/>
     </row>
-    <row r="8" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="15" t="s">
+      <c r="S8" s="45"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="V8" s="24"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
     </row>
-    <row r="9" spans="1:34" s="35" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:34" s="18" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="R9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="29" t="s">
+      <c r="S9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="29" t="s">
+      <c r="T9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="29" t="s">
+      <c r="U9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="29" t="s">
+      <c r="V9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="W9" s="29" t="s">
+      <c r="W9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="30" t="s">
+      <c r="X9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="32" t="s">
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AA9" s="33" t="s">
+      <c r="AA9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="34" t="s">
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AD9" s="34" t="s">
+      <c r="AD9" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36">
-        <v>100486</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="40"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="23"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
     </row>
     <row r="11" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36">
-        <v>6327</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="40"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="23"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
     </row>
     <row r="12" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36">
-        <v>100331</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="40"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="23"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
     </row>
     <row r="13" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36">
-        <v>5760</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="40"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="23"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
     </row>
     <row r="14" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="40"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
     </row>
     <row r="15" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36">
-        <v>101724</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="38"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="40"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="21"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
     </row>
     <row r="16" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36">
-        <v>101165</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="40"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="23"/>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
     </row>
     <row r="17" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36">
-        <v>102480</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="40"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="23"/>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
     </row>
     <row r="18" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36">
-        <v>4466</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="40"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="23"/>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
     </row>
     <row r="19" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36">
-        <v>3101</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="40"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="23"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
     </row>
     <row r="20" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36">
-        <v>101040</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="40"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="23"/>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
     </row>
     <row r="21" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36">
-        <v>100788</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="40"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="23"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
     </row>
     <row r="22" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36">
-        <v>3958</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="40"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="23"/>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
     </row>
     <row r="23" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36">
-        <v>2984</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="40"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="23"/>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
     </row>
     <row r="24" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36">
-        <v>102777</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="40"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="23"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
     </row>
     <row r="25" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36">
-        <v>100728</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="40"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="23"/>
       <c r="AB25" s="2"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
     </row>
     <row r="26" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36">
-        <v>3478</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="40"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="23"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
     </row>
     <row r="27" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36">
-        <v>100057</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="40"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="23"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
     </row>
     <row r="28" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36">
-        <v>4037</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38">
-        <f t="shared" ref="X11:X34" si="0">SUM(C28:W28)</f>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21">
+        <f t="shared" ref="X28:X34" si="0">SUM(C28:W28)</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="39">
+      <c r="Z28" s="22">
         <v>5</v>
       </c>
-      <c r="AA28" s="40">
-        <f t="shared" ref="AA11:AA34" si="1">O28+P28+S28</f>
+      <c r="AA28" s="23">
+        <f t="shared" ref="AA28:AA34" si="1">O28+P28+S28</f>
         <v>0</v>
       </c>
       <c r="AB28" s="2"/>
-      <c r="AC28" s="41" t="s">
+      <c r="AC28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD28" s="41"/>
+      <c r="AD28" s="24"/>
     </row>
     <row r="29" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36">
-        <v>100313</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="40">
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="41" t="s">
+      <c r="AC29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AD29" s="41"/>
+      <c r="AD29" s="24"/>
     </row>
     <row r="30" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36">
-        <v>7142</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="39">
+      <c r="Z30" s="22">
         <v>2</v>
       </c>
-      <c r="AA30" s="40">
+      <c r="AA30" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB30" s="2"/>
-      <c r="AC30" s="41" t="s">
+      <c r="AC30" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD30" s="41"/>
+      <c r="AD30" s="24"/>
     </row>
     <row r="31" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36">
-        <v>100553</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="39">
+      <c r="Z31" s="22">
         <v>1</v>
       </c>
-      <c r="AA31" s="40">
+      <c r="AA31" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB31" s="2"/>
-      <c r="AC31" s="41" t="s">
+      <c r="AC31" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD31" s="41"/>
+      <c r="AD31" s="24"/>
     </row>
     <row r="32" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36">
-        <v>5826</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="39">
+      <c r="Z32" s="22">
         <v>1</v>
       </c>
-      <c r="AA32" s="40">
+      <c r="AA32" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB32" s="2"/>
-      <c r="AC32" s="41" t="s">
+      <c r="AC32" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD32" s="41"/>
+      <c r="AD32" s="24"/>
     </row>
     <row r="33" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36">
-        <v>101569</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21">
         <v>0.05</v>
       </c>
-      <c r="X33" s="38">
+      <c r="X33" s="21">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Z33" s="39">
+      <c r="Z33" s="22">
         <v>2</v>
       </c>
-      <c r="AA33" s="40">
+      <c r="AA33" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="41" t="s">
+      <c r="AC33" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD33" s="41"/>
+      <c r="AD33" s="24"/>
     </row>
     <row r="34" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36">
-        <v>3647</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21">
         <v>0.05</v>
       </c>
-      <c r="X34" s="38">
+      <c r="X34" s="21">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Z34" s="39">
+      <c r="Z34" s="22">
         <v>2</v>
       </c>
-      <c r="AA34" s="40">
+      <c r="AA34" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB34" s="2"/>
-      <c r="AC34" s="41" t="s">
+      <c r="AC34" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AD34" s="41"/>
+      <c r="AD34" s="24"/>
     </row>
     <row r="35" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="45"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="28"/>
       <c r="AB35" s="2"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
     </row>
     <row r="36" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="45"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="28"/>
       <c r="AB36" s="2"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="46"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
     </row>
     <row r="37" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="45"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="28"/>
       <c r="AB37" s="2"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="46"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
     </row>
     <row r="38" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="45"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="28"/>
       <c r="AB38" s="2"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:V8"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:V8"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC10:AC38 JY10:JY38 TU10:TU38 ADQ10:ADQ38 ANM10:ANM38 AXI10:AXI38 BHE10:BHE38 BRA10:BRA38 CAW10:CAW38 CKS10:CKS38 CUO10:CUO38 DEK10:DEK38 DOG10:DOG38 DYC10:DYC38 EHY10:EHY38 ERU10:ERU38 FBQ10:FBQ38 FLM10:FLM38 FVI10:FVI38 GFE10:GFE38 GPA10:GPA38 GYW10:GYW38 HIS10:HIS38 HSO10:HSO38 ICK10:ICK38 IMG10:IMG38 IWC10:IWC38 JFY10:JFY38 JPU10:JPU38 JZQ10:JZQ38 KJM10:KJM38 KTI10:KTI38 LDE10:LDE38 LNA10:LNA38 LWW10:LWW38 MGS10:MGS38 MQO10:MQO38 NAK10:NAK38 NKG10:NKG38 NUC10:NUC38 ODY10:ODY38 ONU10:ONU38 OXQ10:OXQ38 PHM10:PHM38 PRI10:PRI38 QBE10:QBE38 QLA10:QLA38 QUW10:QUW38 RES10:RES38 ROO10:ROO38 RYK10:RYK38 SIG10:SIG38 SSC10:SSC38 TBY10:TBY38 TLU10:TLU38 TVQ10:TVQ38 UFM10:UFM38 UPI10:UPI38 UZE10:UZE38 VJA10:VJA38 VSW10:VSW38 WCS10:WCS38 WMO10:WMO38 WWK10:WWK38 AC65546:AC65574 JY65546:JY65574 TU65546:TU65574 ADQ65546:ADQ65574 ANM65546:ANM65574 AXI65546:AXI65574 BHE65546:BHE65574 BRA65546:BRA65574 CAW65546:CAW65574 CKS65546:CKS65574 CUO65546:CUO65574 DEK65546:DEK65574 DOG65546:DOG65574 DYC65546:DYC65574 EHY65546:EHY65574 ERU65546:ERU65574 FBQ65546:FBQ65574 FLM65546:FLM65574 FVI65546:FVI65574 GFE65546:GFE65574 GPA65546:GPA65574 GYW65546:GYW65574 HIS65546:HIS65574 HSO65546:HSO65574 ICK65546:ICK65574 IMG65546:IMG65574 IWC65546:IWC65574 JFY65546:JFY65574 JPU65546:JPU65574 JZQ65546:JZQ65574 KJM65546:KJM65574 KTI65546:KTI65574 LDE65546:LDE65574 LNA65546:LNA65574 LWW65546:LWW65574 MGS65546:MGS65574 MQO65546:MQO65574 NAK65546:NAK65574 NKG65546:NKG65574 NUC65546:NUC65574 ODY65546:ODY65574 ONU65546:ONU65574 OXQ65546:OXQ65574 PHM65546:PHM65574 PRI65546:PRI65574 QBE65546:QBE65574 QLA65546:QLA65574 QUW65546:QUW65574 RES65546:RES65574 ROO65546:ROO65574 RYK65546:RYK65574 SIG65546:SIG65574 SSC65546:SSC65574 TBY65546:TBY65574 TLU65546:TLU65574 TVQ65546:TVQ65574 UFM65546:UFM65574 UPI65546:UPI65574 UZE65546:UZE65574 VJA65546:VJA65574 VSW65546:VSW65574 WCS65546:WCS65574 WMO65546:WMO65574 WWK65546:WWK65574 AC131082:AC131110 JY131082:JY131110 TU131082:TU131110 ADQ131082:ADQ131110 ANM131082:ANM131110 AXI131082:AXI131110 BHE131082:BHE131110 BRA131082:BRA131110 CAW131082:CAW131110 CKS131082:CKS131110 CUO131082:CUO131110 DEK131082:DEK131110 DOG131082:DOG131110 DYC131082:DYC131110 EHY131082:EHY131110 ERU131082:ERU131110 FBQ131082:FBQ131110 FLM131082:FLM131110 FVI131082:FVI131110 GFE131082:GFE131110 GPA131082:GPA131110 GYW131082:GYW131110 HIS131082:HIS131110 HSO131082:HSO131110 ICK131082:ICK131110 IMG131082:IMG131110 IWC131082:IWC131110 JFY131082:JFY131110 JPU131082:JPU131110 JZQ131082:JZQ131110 KJM131082:KJM131110 KTI131082:KTI131110 LDE131082:LDE131110 LNA131082:LNA131110 LWW131082:LWW131110 MGS131082:MGS131110 MQO131082:MQO131110 NAK131082:NAK131110 NKG131082:NKG131110 NUC131082:NUC131110 ODY131082:ODY131110 ONU131082:ONU131110 OXQ131082:OXQ131110 PHM131082:PHM131110 PRI131082:PRI131110 QBE131082:QBE131110 QLA131082:QLA131110 QUW131082:QUW131110 RES131082:RES131110 ROO131082:ROO131110 RYK131082:RYK131110 SIG131082:SIG131110 SSC131082:SSC131110 TBY131082:TBY131110 TLU131082:TLU131110 TVQ131082:TVQ131110 UFM131082:UFM131110 UPI131082:UPI131110 UZE131082:UZE131110 VJA131082:VJA131110 VSW131082:VSW131110 WCS131082:WCS131110 WMO131082:WMO131110 WWK131082:WWK131110 AC196618:AC196646 JY196618:JY196646 TU196618:TU196646 ADQ196618:ADQ196646 ANM196618:ANM196646 AXI196618:AXI196646 BHE196618:BHE196646 BRA196618:BRA196646 CAW196618:CAW196646 CKS196618:CKS196646 CUO196618:CUO196646 DEK196618:DEK196646 DOG196618:DOG196646 DYC196618:DYC196646 EHY196618:EHY196646 ERU196618:ERU196646 FBQ196618:FBQ196646 FLM196618:FLM196646 FVI196618:FVI196646 GFE196618:GFE196646 GPA196618:GPA196646 GYW196618:GYW196646 HIS196618:HIS196646 HSO196618:HSO196646 ICK196618:ICK196646 IMG196618:IMG196646 IWC196618:IWC196646 JFY196618:JFY196646 JPU196618:JPU196646 JZQ196618:JZQ196646 KJM196618:KJM196646 KTI196618:KTI196646 LDE196618:LDE196646 LNA196618:LNA196646 LWW196618:LWW196646 MGS196618:MGS196646 MQO196618:MQO196646 NAK196618:NAK196646 NKG196618:NKG196646 NUC196618:NUC196646 ODY196618:ODY196646 ONU196618:ONU196646 OXQ196618:OXQ196646 PHM196618:PHM196646 PRI196618:PRI196646 QBE196618:QBE196646 QLA196618:QLA196646 QUW196618:QUW196646 RES196618:RES196646 ROO196618:ROO196646 RYK196618:RYK196646 SIG196618:SIG196646 SSC196618:SSC196646 TBY196618:TBY196646 TLU196618:TLU196646 TVQ196618:TVQ196646 UFM196618:UFM196646 UPI196618:UPI196646 UZE196618:UZE196646 VJA196618:VJA196646 VSW196618:VSW196646 WCS196618:WCS196646 WMO196618:WMO196646 WWK196618:WWK196646 AC262154:AC262182 JY262154:JY262182 TU262154:TU262182 ADQ262154:ADQ262182 ANM262154:ANM262182 AXI262154:AXI262182 BHE262154:BHE262182 BRA262154:BRA262182 CAW262154:CAW262182 CKS262154:CKS262182 CUO262154:CUO262182 DEK262154:DEK262182 DOG262154:DOG262182 DYC262154:DYC262182 EHY262154:EHY262182 ERU262154:ERU262182 FBQ262154:FBQ262182 FLM262154:FLM262182 FVI262154:FVI262182 GFE262154:GFE262182 GPA262154:GPA262182 GYW262154:GYW262182 HIS262154:HIS262182 HSO262154:HSO262182 ICK262154:ICK262182 IMG262154:IMG262182 IWC262154:IWC262182 JFY262154:JFY262182 JPU262154:JPU262182 JZQ262154:JZQ262182 KJM262154:KJM262182 KTI262154:KTI262182 LDE262154:LDE262182 LNA262154:LNA262182 LWW262154:LWW262182 MGS262154:MGS262182 MQO262154:MQO262182 NAK262154:NAK262182 NKG262154:NKG262182 NUC262154:NUC262182 ODY262154:ODY262182 ONU262154:ONU262182 OXQ262154:OXQ262182 PHM262154:PHM262182 PRI262154:PRI262182 QBE262154:QBE262182 QLA262154:QLA262182 QUW262154:QUW262182 RES262154:RES262182 ROO262154:ROO262182 RYK262154:RYK262182 SIG262154:SIG262182 SSC262154:SSC262182 TBY262154:TBY262182 TLU262154:TLU262182 TVQ262154:TVQ262182 UFM262154:UFM262182 UPI262154:UPI262182 UZE262154:UZE262182 VJA262154:VJA262182 VSW262154:VSW262182 WCS262154:WCS262182 WMO262154:WMO262182 WWK262154:WWK262182 AC327690:AC327718 JY327690:JY327718 TU327690:TU327718 ADQ327690:ADQ327718 ANM327690:ANM327718 AXI327690:AXI327718 BHE327690:BHE327718 BRA327690:BRA327718 CAW327690:CAW327718 CKS327690:CKS327718 CUO327690:CUO327718 DEK327690:DEK327718 DOG327690:DOG327718 DYC327690:DYC327718 EHY327690:EHY327718 ERU327690:ERU327718 FBQ327690:FBQ327718 FLM327690:FLM327718 FVI327690:FVI327718 GFE327690:GFE327718 GPA327690:GPA327718 GYW327690:GYW327718 HIS327690:HIS327718 HSO327690:HSO327718 ICK327690:ICK327718 IMG327690:IMG327718 IWC327690:IWC327718 JFY327690:JFY327718 JPU327690:JPU327718 JZQ327690:JZQ327718 KJM327690:KJM327718 KTI327690:KTI327718 LDE327690:LDE327718 LNA327690:LNA327718 LWW327690:LWW327718 MGS327690:MGS327718 MQO327690:MQO327718 NAK327690:NAK327718 NKG327690:NKG327718 NUC327690:NUC327718 ODY327690:ODY327718 ONU327690:ONU327718 OXQ327690:OXQ327718 PHM327690:PHM327718 PRI327690:PRI327718 QBE327690:QBE327718 QLA327690:QLA327718 QUW327690:QUW327718 RES327690:RES327718 ROO327690:ROO327718 RYK327690:RYK327718 SIG327690:SIG327718 SSC327690:SSC327718 TBY327690:TBY327718 TLU327690:TLU327718 TVQ327690:TVQ327718 UFM327690:UFM327718 UPI327690:UPI327718 UZE327690:UZE327718 VJA327690:VJA327718 VSW327690:VSW327718 WCS327690:WCS327718 WMO327690:WMO327718 WWK327690:WWK327718 AC393226:AC393254 JY393226:JY393254 TU393226:TU393254 ADQ393226:ADQ393254 ANM393226:ANM393254 AXI393226:AXI393254 BHE393226:BHE393254 BRA393226:BRA393254 CAW393226:CAW393254 CKS393226:CKS393254 CUO393226:CUO393254 DEK393226:DEK393254 DOG393226:DOG393254 DYC393226:DYC393254 EHY393226:EHY393254 ERU393226:ERU393254 FBQ393226:FBQ393254 FLM393226:FLM393254 FVI393226:FVI393254 GFE393226:GFE393254 GPA393226:GPA393254 GYW393226:GYW393254 HIS393226:HIS393254 HSO393226:HSO393254 ICK393226:ICK393254 IMG393226:IMG393254 IWC393226:IWC393254 JFY393226:JFY393254 JPU393226:JPU393254 JZQ393226:JZQ393254 KJM393226:KJM393254 KTI393226:KTI393254 LDE393226:LDE393254 LNA393226:LNA393254 LWW393226:LWW393254 MGS393226:MGS393254 MQO393226:MQO393254 NAK393226:NAK393254 NKG393226:NKG393254 NUC393226:NUC393254 ODY393226:ODY393254 ONU393226:ONU393254 OXQ393226:OXQ393254 PHM393226:PHM393254 PRI393226:PRI393254 QBE393226:QBE393254 QLA393226:QLA393254 QUW393226:QUW393254 RES393226:RES393254 ROO393226:ROO393254 RYK393226:RYK393254 SIG393226:SIG393254 SSC393226:SSC393254 TBY393226:TBY393254 TLU393226:TLU393254 TVQ393226:TVQ393254 UFM393226:UFM393254 UPI393226:UPI393254 UZE393226:UZE393254 VJA393226:VJA393254 VSW393226:VSW393254 WCS393226:WCS393254 WMO393226:WMO393254 WWK393226:WWK393254 AC458762:AC458790 JY458762:JY458790 TU458762:TU458790 ADQ458762:ADQ458790 ANM458762:ANM458790 AXI458762:AXI458790 BHE458762:BHE458790 BRA458762:BRA458790 CAW458762:CAW458790 CKS458762:CKS458790 CUO458762:CUO458790 DEK458762:DEK458790 DOG458762:DOG458790 DYC458762:DYC458790 EHY458762:EHY458790 ERU458762:ERU458790 FBQ458762:FBQ458790 FLM458762:FLM458790 FVI458762:FVI458790 GFE458762:GFE458790 GPA458762:GPA458790 GYW458762:GYW458790 HIS458762:HIS458790 HSO458762:HSO458790 ICK458762:ICK458790 IMG458762:IMG458790 IWC458762:IWC458790 JFY458762:JFY458790 JPU458762:JPU458790 JZQ458762:JZQ458790 KJM458762:KJM458790 KTI458762:KTI458790 LDE458762:LDE458790 LNA458762:LNA458790 LWW458762:LWW458790 MGS458762:MGS458790 MQO458762:MQO458790 NAK458762:NAK458790 NKG458762:NKG458790 NUC458762:NUC458790 ODY458762:ODY458790 ONU458762:ONU458790 OXQ458762:OXQ458790 PHM458762:PHM458790 PRI458762:PRI458790 QBE458762:QBE458790 QLA458762:QLA458790 QUW458762:QUW458790 RES458762:RES458790 ROO458762:ROO458790 RYK458762:RYK458790 SIG458762:SIG458790 SSC458762:SSC458790 TBY458762:TBY458790 TLU458762:TLU458790 TVQ458762:TVQ458790 UFM458762:UFM458790 UPI458762:UPI458790 UZE458762:UZE458790 VJA458762:VJA458790 VSW458762:VSW458790 WCS458762:WCS458790 WMO458762:WMO458790 WWK458762:WWK458790 AC524298:AC524326 JY524298:JY524326 TU524298:TU524326 ADQ524298:ADQ524326 ANM524298:ANM524326 AXI524298:AXI524326 BHE524298:BHE524326 BRA524298:BRA524326 CAW524298:CAW524326 CKS524298:CKS524326 CUO524298:CUO524326 DEK524298:DEK524326 DOG524298:DOG524326 DYC524298:DYC524326 EHY524298:EHY524326 ERU524298:ERU524326 FBQ524298:FBQ524326 FLM524298:FLM524326 FVI524298:FVI524326 GFE524298:GFE524326 GPA524298:GPA524326 GYW524298:GYW524326 HIS524298:HIS524326 HSO524298:HSO524326 ICK524298:ICK524326 IMG524298:IMG524326 IWC524298:IWC524326 JFY524298:JFY524326 JPU524298:JPU524326 JZQ524298:JZQ524326 KJM524298:KJM524326 KTI524298:KTI524326 LDE524298:LDE524326 LNA524298:LNA524326 LWW524298:LWW524326 MGS524298:MGS524326 MQO524298:MQO524326 NAK524298:NAK524326 NKG524298:NKG524326 NUC524298:NUC524326 ODY524298:ODY524326 ONU524298:ONU524326 OXQ524298:OXQ524326 PHM524298:PHM524326 PRI524298:PRI524326 QBE524298:QBE524326 QLA524298:QLA524326 QUW524298:QUW524326 RES524298:RES524326 ROO524298:ROO524326 RYK524298:RYK524326 SIG524298:SIG524326 SSC524298:SSC524326 TBY524298:TBY524326 TLU524298:TLU524326 TVQ524298:TVQ524326 UFM524298:UFM524326 UPI524298:UPI524326 UZE524298:UZE524326 VJA524298:VJA524326 VSW524298:VSW524326 WCS524298:WCS524326 WMO524298:WMO524326 WWK524298:WWK524326 AC589834:AC589862 JY589834:JY589862 TU589834:TU589862 ADQ589834:ADQ589862 ANM589834:ANM589862 AXI589834:AXI589862 BHE589834:BHE589862 BRA589834:BRA589862 CAW589834:CAW589862 CKS589834:CKS589862 CUO589834:CUO589862 DEK589834:DEK589862 DOG589834:DOG589862 DYC589834:DYC589862 EHY589834:EHY589862 ERU589834:ERU589862 FBQ589834:FBQ589862 FLM589834:FLM589862 FVI589834:FVI589862 GFE589834:GFE589862 GPA589834:GPA589862 GYW589834:GYW589862 HIS589834:HIS589862 HSO589834:HSO589862 ICK589834:ICK589862 IMG589834:IMG589862 IWC589834:IWC589862 JFY589834:JFY589862 JPU589834:JPU589862 JZQ589834:JZQ589862 KJM589834:KJM589862 KTI589834:KTI589862 LDE589834:LDE589862 LNA589834:LNA589862 LWW589834:LWW589862 MGS589834:MGS589862 MQO589834:MQO589862 NAK589834:NAK589862 NKG589834:NKG589862 NUC589834:NUC589862 ODY589834:ODY589862 ONU589834:ONU589862 OXQ589834:OXQ589862 PHM589834:PHM589862 PRI589834:PRI589862 QBE589834:QBE589862 QLA589834:QLA589862 QUW589834:QUW589862 RES589834:RES589862 ROO589834:ROO589862 RYK589834:RYK589862 SIG589834:SIG589862 SSC589834:SSC589862 TBY589834:TBY589862 TLU589834:TLU589862 TVQ589834:TVQ589862 UFM589834:UFM589862 UPI589834:UPI589862 UZE589834:UZE589862 VJA589834:VJA589862 VSW589834:VSW589862 WCS589834:WCS589862 WMO589834:WMO589862 WWK589834:WWK589862 AC655370:AC655398 JY655370:JY655398 TU655370:TU655398 ADQ655370:ADQ655398 ANM655370:ANM655398 AXI655370:AXI655398 BHE655370:BHE655398 BRA655370:BRA655398 CAW655370:CAW655398 CKS655370:CKS655398 CUO655370:CUO655398 DEK655370:DEK655398 DOG655370:DOG655398 DYC655370:DYC655398 EHY655370:EHY655398 ERU655370:ERU655398 FBQ655370:FBQ655398 FLM655370:FLM655398 FVI655370:FVI655398 GFE655370:GFE655398 GPA655370:GPA655398 GYW655370:GYW655398 HIS655370:HIS655398 HSO655370:HSO655398 ICK655370:ICK655398 IMG655370:IMG655398 IWC655370:IWC655398 JFY655370:JFY655398 JPU655370:JPU655398 JZQ655370:JZQ655398 KJM655370:KJM655398 KTI655370:KTI655398 LDE655370:LDE655398 LNA655370:LNA655398 LWW655370:LWW655398 MGS655370:MGS655398 MQO655370:MQO655398 NAK655370:NAK655398 NKG655370:NKG655398 NUC655370:NUC655398 ODY655370:ODY655398 ONU655370:ONU655398 OXQ655370:OXQ655398 PHM655370:PHM655398 PRI655370:PRI655398 QBE655370:QBE655398 QLA655370:QLA655398 QUW655370:QUW655398 RES655370:RES655398 ROO655370:ROO655398 RYK655370:RYK655398 SIG655370:SIG655398 SSC655370:SSC655398 TBY655370:TBY655398 TLU655370:TLU655398 TVQ655370:TVQ655398 UFM655370:UFM655398 UPI655370:UPI655398 UZE655370:UZE655398 VJA655370:VJA655398 VSW655370:VSW655398 WCS655370:WCS655398 WMO655370:WMO655398 WWK655370:WWK655398 AC720906:AC720934 JY720906:JY720934 TU720906:TU720934 ADQ720906:ADQ720934 ANM720906:ANM720934 AXI720906:AXI720934 BHE720906:BHE720934 BRA720906:BRA720934 CAW720906:CAW720934 CKS720906:CKS720934 CUO720906:CUO720934 DEK720906:DEK720934 DOG720906:DOG720934 DYC720906:DYC720934 EHY720906:EHY720934 ERU720906:ERU720934 FBQ720906:FBQ720934 FLM720906:FLM720934 FVI720906:FVI720934 GFE720906:GFE720934 GPA720906:GPA720934 GYW720906:GYW720934 HIS720906:HIS720934 HSO720906:HSO720934 ICK720906:ICK720934 IMG720906:IMG720934 IWC720906:IWC720934 JFY720906:JFY720934 JPU720906:JPU720934 JZQ720906:JZQ720934 KJM720906:KJM720934 KTI720906:KTI720934 LDE720906:LDE720934 LNA720906:LNA720934 LWW720906:LWW720934 MGS720906:MGS720934 MQO720906:MQO720934 NAK720906:NAK720934 NKG720906:NKG720934 NUC720906:NUC720934 ODY720906:ODY720934 ONU720906:ONU720934 OXQ720906:OXQ720934 PHM720906:PHM720934 PRI720906:PRI720934 QBE720906:QBE720934 QLA720906:QLA720934 QUW720906:QUW720934 RES720906:RES720934 ROO720906:ROO720934 RYK720906:RYK720934 SIG720906:SIG720934 SSC720906:SSC720934 TBY720906:TBY720934 TLU720906:TLU720934 TVQ720906:TVQ720934 UFM720906:UFM720934 UPI720906:UPI720934 UZE720906:UZE720934 VJA720906:VJA720934 VSW720906:VSW720934 WCS720906:WCS720934 WMO720906:WMO720934 WWK720906:WWK720934 AC786442:AC786470 JY786442:JY786470 TU786442:TU786470 ADQ786442:ADQ786470 ANM786442:ANM786470 AXI786442:AXI786470 BHE786442:BHE786470 BRA786442:BRA786470 CAW786442:CAW786470 CKS786442:CKS786470 CUO786442:CUO786470 DEK786442:DEK786470 DOG786442:DOG786470 DYC786442:DYC786470 EHY786442:EHY786470 ERU786442:ERU786470 FBQ786442:FBQ786470 FLM786442:FLM786470 FVI786442:FVI786470 GFE786442:GFE786470 GPA786442:GPA786470 GYW786442:GYW786470 HIS786442:HIS786470 HSO786442:HSO786470 ICK786442:ICK786470 IMG786442:IMG786470 IWC786442:IWC786470 JFY786442:JFY786470 JPU786442:JPU786470 JZQ786442:JZQ786470 KJM786442:KJM786470 KTI786442:KTI786470 LDE786442:LDE786470 LNA786442:LNA786470 LWW786442:LWW786470 MGS786442:MGS786470 MQO786442:MQO786470 NAK786442:NAK786470 NKG786442:NKG786470 NUC786442:NUC786470 ODY786442:ODY786470 ONU786442:ONU786470 OXQ786442:OXQ786470 PHM786442:PHM786470 PRI786442:PRI786470 QBE786442:QBE786470 QLA786442:QLA786470 QUW786442:QUW786470 RES786442:RES786470 ROO786442:ROO786470 RYK786442:RYK786470 SIG786442:SIG786470 SSC786442:SSC786470 TBY786442:TBY786470 TLU786442:TLU786470 TVQ786442:TVQ786470 UFM786442:UFM786470 UPI786442:UPI786470 UZE786442:UZE786470 VJA786442:VJA786470 VSW786442:VSW786470 WCS786442:WCS786470 WMO786442:WMO786470 WWK786442:WWK786470 AC851978:AC852006 JY851978:JY852006 TU851978:TU852006 ADQ851978:ADQ852006 ANM851978:ANM852006 AXI851978:AXI852006 BHE851978:BHE852006 BRA851978:BRA852006 CAW851978:CAW852006 CKS851978:CKS852006 CUO851978:CUO852006 DEK851978:DEK852006 DOG851978:DOG852006 DYC851978:DYC852006 EHY851978:EHY852006 ERU851978:ERU852006 FBQ851978:FBQ852006 FLM851978:FLM852006 FVI851978:FVI852006 GFE851978:GFE852006 GPA851978:GPA852006 GYW851978:GYW852006 HIS851978:HIS852006 HSO851978:HSO852006 ICK851978:ICK852006 IMG851978:IMG852006 IWC851978:IWC852006 JFY851978:JFY852006 JPU851978:JPU852006 JZQ851978:JZQ852006 KJM851978:KJM852006 KTI851978:KTI852006 LDE851978:LDE852006 LNA851978:LNA852006 LWW851978:LWW852006 MGS851978:MGS852006 MQO851978:MQO852006 NAK851978:NAK852006 NKG851978:NKG852006 NUC851978:NUC852006 ODY851978:ODY852006 ONU851978:ONU852006 OXQ851978:OXQ852006 PHM851978:PHM852006 PRI851978:PRI852006 QBE851978:QBE852006 QLA851978:QLA852006 QUW851978:QUW852006 RES851978:RES852006 ROO851978:ROO852006 RYK851978:RYK852006 SIG851978:SIG852006 SSC851978:SSC852006 TBY851978:TBY852006 TLU851978:TLU852006 TVQ851978:TVQ852006 UFM851978:UFM852006 UPI851978:UPI852006 UZE851978:UZE852006 VJA851978:VJA852006 VSW851978:VSW852006 WCS851978:WCS852006 WMO851978:WMO852006 WWK851978:WWK852006 AC917514:AC917542 JY917514:JY917542 TU917514:TU917542 ADQ917514:ADQ917542 ANM917514:ANM917542 AXI917514:AXI917542 BHE917514:BHE917542 BRA917514:BRA917542 CAW917514:CAW917542 CKS917514:CKS917542 CUO917514:CUO917542 DEK917514:DEK917542 DOG917514:DOG917542 DYC917514:DYC917542 EHY917514:EHY917542 ERU917514:ERU917542 FBQ917514:FBQ917542 FLM917514:FLM917542 FVI917514:FVI917542 GFE917514:GFE917542 GPA917514:GPA917542 GYW917514:GYW917542 HIS917514:HIS917542 HSO917514:HSO917542 ICK917514:ICK917542 IMG917514:IMG917542 IWC917514:IWC917542 JFY917514:JFY917542 JPU917514:JPU917542 JZQ917514:JZQ917542 KJM917514:KJM917542 KTI917514:KTI917542 LDE917514:LDE917542 LNA917514:LNA917542 LWW917514:LWW917542 MGS917514:MGS917542 MQO917514:MQO917542 NAK917514:NAK917542 NKG917514:NKG917542 NUC917514:NUC917542 ODY917514:ODY917542 ONU917514:ONU917542 OXQ917514:OXQ917542 PHM917514:PHM917542 PRI917514:PRI917542 QBE917514:QBE917542 QLA917514:QLA917542 QUW917514:QUW917542 RES917514:RES917542 ROO917514:ROO917542 RYK917514:RYK917542 SIG917514:SIG917542 SSC917514:SSC917542 TBY917514:TBY917542 TLU917514:TLU917542 TVQ917514:TVQ917542 UFM917514:UFM917542 UPI917514:UPI917542 UZE917514:UZE917542 VJA917514:VJA917542 VSW917514:VSW917542 WCS917514:WCS917542 WMO917514:WMO917542 WWK917514:WWK917542 AC983050:AC983078 JY983050:JY983078 TU983050:TU983078 ADQ983050:ADQ983078 ANM983050:ANM983078 AXI983050:AXI983078 BHE983050:BHE983078 BRA983050:BRA983078 CAW983050:CAW983078 CKS983050:CKS983078 CUO983050:CUO983078 DEK983050:DEK983078 DOG983050:DOG983078 DYC983050:DYC983078 EHY983050:EHY983078 ERU983050:ERU983078 FBQ983050:FBQ983078 FLM983050:FLM983078 FVI983050:FVI983078 GFE983050:GFE983078 GPA983050:GPA983078 GYW983050:GYW983078 HIS983050:HIS983078 HSO983050:HSO983078 ICK983050:ICK983078 IMG983050:IMG983078 IWC983050:IWC983078 JFY983050:JFY983078 JPU983050:JPU983078 JZQ983050:JZQ983078 KJM983050:KJM983078 KTI983050:KTI983078 LDE983050:LDE983078 LNA983050:LNA983078 LWW983050:LWW983078 MGS983050:MGS983078 MQO983050:MQO983078 NAK983050:NAK983078 NKG983050:NKG983078 NUC983050:NUC983078 ODY983050:ODY983078 ONU983050:ONU983078 OXQ983050:OXQ983078 PHM983050:PHM983078 PRI983050:PRI983078 QBE983050:QBE983078 QLA983050:QLA983078 QUW983050:QUW983078 RES983050:RES983078 ROO983050:ROO983078 RYK983050:RYK983078 SIG983050:SIG983078 SSC983050:SSC983078 TBY983050:TBY983078 TLU983050:TLU983078 TVQ983050:TVQ983078 UFM983050:UFM983078 UPI983050:UPI983078 UZE983050:UZE983078 VJA983050:VJA983078 VSW983050:VSW983078 WCS983050:WCS983078 WMO983050:WMO983078 WWK983050:WWK983078">

--- a/test/megareport.xlsx
+++ b/test/megareport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\NetBeansProjects\TAS\test\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t xml:space="preserve">TAS SUMMARY  </t>
   </si>
@@ -191,11 +191,24 @@
       <t xml:space="preserve">Teaching (T), Research (R), or 50:50 split </t>
     </r>
   </si>
+  <si>
+    <t>1 February 2018 to 31 May 2018</t>
+  </si>
+  <si>
+    <t>Computing</t>
+  </si>
+  <si>
+    <t>newname</t>
+  </si>
+  <si>
+    <t>testid90</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -899,1670 +912,1670 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="30" customWidth="1"/>
-    <col min="12" max="12" width="12" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="30" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.7109375" style="30" customWidth="1"/>
-    <col min="18" max="20" width="14.85546875" style="30" customWidth="1"/>
-    <col min="21" max="23" width="14.7109375" style="30" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="30" customWidth="1"/>
-    <col min="25" max="25" width="2" style="5" customWidth="1"/>
-    <col min="26" max="26" width="12" style="5" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="5"/>
-    <col min="28" max="28" width="2" style="5" customWidth="1"/>
-    <col min="29" max="30" width="16.28515625" style="5" customWidth="1"/>
-    <col min="31" max="32" width="12.7109375" style="5"/>
-    <col min="33" max="34" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="35" max="256" width="12.7109375" style="5"/>
-    <col min="257" max="257" width="54.28515625" style="5" customWidth="1"/>
-    <col min="258" max="258" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="259" max="259" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="8.5703125" style="5" customWidth="1"/>
-    <col min="261" max="261" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="14.85546875" style="5" customWidth="1"/>
-    <col min="268" max="268" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="11.28515625" style="5" customWidth="1"/>
-    <col min="270" max="270" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="271" max="273" width="14.7109375" style="5" customWidth="1"/>
-    <col min="274" max="276" width="14.85546875" style="5" customWidth="1"/>
-    <col min="277" max="279" width="14.7109375" style="5" customWidth="1"/>
-    <col min="280" max="280" width="10.5703125" style="5" customWidth="1"/>
-    <col min="281" max="281" width="2" style="5" customWidth="1"/>
-    <col min="282" max="282" width="12" style="5" customWidth="1"/>
-    <col min="283" max="283" width="12.7109375" style="5"/>
-    <col min="284" max="284" width="2" style="5" customWidth="1"/>
-    <col min="285" max="286" width="16.28515625" style="5" customWidth="1"/>
-    <col min="287" max="288" width="12.7109375" style="5"/>
-    <col min="289" max="290" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="291" max="512" width="12.7109375" style="5"/>
-    <col min="513" max="513" width="54.28515625" style="5" customWidth="1"/>
-    <col min="514" max="514" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="515" max="515" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="8.5703125" style="5" customWidth="1"/>
-    <col min="517" max="517" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="14.85546875" style="5" customWidth="1"/>
-    <col min="524" max="524" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="11.28515625" style="5" customWidth="1"/>
-    <col min="526" max="526" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="527" max="529" width="14.7109375" style="5" customWidth="1"/>
-    <col min="530" max="532" width="14.85546875" style="5" customWidth="1"/>
-    <col min="533" max="535" width="14.7109375" style="5" customWidth="1"/>
-    <col min="536" max="536" width="10.5703125" style="5" customWidth="1"/>
-    <col min="537" max="537" width="2" style="5" customWidth="1"/>
-    <col min="538" max="538" width="12" style="5" customWidth="1"/>
-    <col min="539" max="539" width="12.7109375" style="5"/>
-    <col min="540" max="540" width="2" style="5" customWidth="1"/>
-    <col min="541" max="542" width="16.28515625" style="5" customWidth="1"/>
-    <col min="543" max="544" width="12.7109375" style="5"/>
-    <col min="545" max="546" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="547" max="768" width="12.7109375" style="5"/>
-    <col min="769" max="769" width="54.28515625" style="5" customWidth="1"/>
-    <col min="770" max="770" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="771" max="771" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="8.5703125" style="5" customWidth="1"/>
-    <col min="773" max="773" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="14.85546875" style="5" customWidth="1"/>
-    <col min="780" max="780" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="781" max="781" width="11.28515625" style="5" customWidth="1"/>
-    <col min="782" max="782" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="783" max="785" width="14.7109375" style="5" customWidth="1"/>
-    <col min="786" max="788" width="14.85546875" style="5" customWidth="1"/>
-    <col min="789" max="791" width="14.7109375" style="5" customWidth="1"/>
-    <col min="792" max="792" width="10.5703125" style="5" customWidth="1"/>
-    <col min="793" max="793" width="2" style="5" customWidth="1"/>
-    <col min="794" max="794" width="12" style="5" customWidth="1"/>
-    <col min="795" max="795" width="12.7109375" style="5"/>
-    <col min="796" max="796" width="2" style="5" customWidth="1"/>
-    <col min="797" max="798" width="16.28515625" style="5" customWidth="1"/>
-    <col min="799" max="800" width="12.7109375" style="5"/>
-    <col min="801" max="802" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="803" max="1024" width="12.7109375" style="5"/>
-    <col min="1025" max="1025" width="54.28515625" style="5" customWidth="1"/>
-    <col min="1026" max="1026" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1027" max="1027" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="8.5703125" style="5" customWidth="1"/>
-    <col min="1029" max="1029" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="14.85546875" style="5" customWidth="1"/>
-    <col min="1036" max="1036" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1037" width="11.28515625" style="5" customWidth="1"/>
-    <col min="1038" max="1038" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1041" width="14.7109375" style="5" customWidth="1"/>
-    <col min="1042" max="1044" width="14.85546875" style="5" customWidth="1"/>
-    <col min="1045" max="1047" width="14.7109375" style="5" customWidth="1"/>
-    <col min="1048" max="1048" width="10.5703125" style="5" customWidth="1"/>
-    <col min="1049" max="1049" width="2" style="5" customWidth="1"/>
-    <col min="1050" max="1050" width="12" style="5" customWidth="1"/>
-    <col min="1051" max="1051" width="12.7109375" style="5"/>
-    <col min="1052" max="1052" width="2" style="5" customWidth="1"/>
-    <col min="1053" max="1054" width="16.28515625" style="5" customWidth="1"/>
-    <col min="1055" max="1056" width="12.7109375" style="5"/>
-    <col min="1057" max="1058" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1059" max="1280" width="12.7109375" style="5"/>
-    <col min="1281" max="1281" width="54.28515625" style="5" customWidth="1"/>
-    <col min="1282" max="1282" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1283" max="1283" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="8.5703125" style="5" customWidth="1"/>
-    <col min="1285" max="1285" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="14.85546875" style="5" customWidth="1"/>
-    <col min="1292" max="1292" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1293" width="11.28515625" style="5" customWidth="1"/>
-    <col min="1294" max="1294" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1297" width="14.7109375" style="5" customWidth="1"/>
-    <col min="1298" max="1300" width="14.85546875" style="5" customWidth="1"/>
-    <col min="1301" max="1303" width="14.7109375" style="5" customWidth="1"/>
-    <col min="1304" max="1304" width="10.5703125" style="5" customWidth="1"/>
-    <col min="1305" max="1305" width="2" style="5" customWidth="1"/>
-    <col min="1306" max="1306" width="12" style="5" customWidth="1"/>
-    <col min="1307" max="1307" width="12.7109375" style="5"/>
-    <col min="1308" max="1308" width="2" style="5" customWidth="1"/>
-    <col min="1309" max="1310" width="16.28515625" style="5" customWidth="1"/>
-    <col min="1311" max="1312" width="12.7109375" style="5"/>
-    <col min="1313" max="1314" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1315" max="1536" width="12.7109375" style="5"/>
-    <col min="1537" max="1537" width="54.28515625" style="5" customWidth="1"/>
-    <col min="1538" max="1538" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1539" max="1539" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="8.5703125" style="5" customWidth="1"/>
-    <col min="1541" max="1541" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="14.85546875" style="5" customWidth="1"/>
-    <col min="1548" max="1548" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1549" width="11.28515625" style="5" customWidth="1"/>
-    <col min="1550" max="1550" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1553" width="14.7109375" style="5" customWidth="1"/>
-    <col min="1554" max="1556" width="14.85546875" style="5" customWidth="1"/>
-    <col min="1557" max="1559" width="14.7109375" style="5" customWidth="1"/>
-    <col min="1560" max="1560" width="10.5703125" style="5" customWidth="1"/>
-    <col min="1561" max="1561" width="2" style="5" customWidth="1"/>
-    <col min="1562" max="1562" width="12" style="5" customWidth="1"/>
-    <col min="1563" max="1563" width="12.7109375" style="5"/>
-    <col min="1564" max="1564" width="2" style="5" customWidth="1"/>
-    <col min="1565" max="1566" width="16.28515625" style="5" customWidth="1"/>
-    <col min="1567" max="1568" width="12.7109375" style="5"/>
-    <col min="1569" max="1570" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1571" max="1792" width="12.7109375" style="5"/>
-    <col min="1793" max="1793" width="54.28515625" style="5" customWidth="1"/>
-    <col min="1794" max="1794" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1795" max="1795" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="8.5703125" style="5" customWidth="1"/>
-    <col min="1797" max="1797" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="14.85546875" style="5" customWidth="1"/>
-    <col min="1804" max="1804" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="1805" max="1805" width="11.28515625" style="5" customWidth="1"/>
-    <col min="1806" max="1806" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1807" max="1809" width="14.7109375" style="5" customWidth="1"/>
-    <col min="1810" max="1812" width="14.85546875" style="5" customWidth="1"/>
-    <col min="1813" max="1815" width="14.7109375" style="5" customWidth="1"/>
-    <col min="1816" max="1816" width="10.5703125" style="5" customWidth="1"/>
-    <col min="1817" max="1817" width="2" style="5" customWidth="1"/>
-    <col min="1818" max="1818" width="12" style="5" customWidth="1"/>
-    <col min="1819" max="1819" width="12.7109375" style="5"/>
-    <col min="1820" max="1820" width="2" style="5" customWidth="1"/>
-    <col min="1821" max="1822" width="16.28515625" style="5" customWidth="1"/>
-    <col min="1823" max="1824" width="12.7109375" style="5"/>
-    <col min="1825" max="1826" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1827" max="2048" width="12.7109375" style="5"/>
-    <col min="2049" max="2049" width="54.28515625" style="5" customWidth="1"/>
-    <col min="2050" max="2050" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2051" max="2051" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="8.5703125" style="5" customWidth="1"/>
-    <col min="2053" max="2053" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2060" max="2060" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2061" width="11.28515625" style="5" customWidth="1"/>
-    <col min="2062" max="2062" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2065" width="14.7109375" style="5" customWidth="1"/>
-    <col min="2066" max="2068" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2069" max="2071" width="14.7109375" style="5" customWidth="1"/>
-    <col min="2072" max="2072" width="10.5703125" style="5" customWidth="1"/>
-    <col min="2073" max="2073" width="2" style="5" customWidth="1"/>
-    <col min="2074" max="2074" width="12" style="5" customWidth="1"/>
-    <col min="2075" max="2075" width="12.7109375" style="5"/>
-    <col min="2076" max="2076" width="2" style="5" customWidth="1"/>
-    <col min="2077" max="2078" width="16.28515625" style="5" customWidth="1"/>
-    <col min="2079" max="2080" width="12.7109375" style="5"/>
-    <col min="2081" max="2082" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2083" max="2304" width="12.7109375" style="5"/>
-    <col min="2305" max="2305" width="54.28515625" style="5" customWidth="1"/>
-    <col min="2306" max="2306" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2307" max="2307" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="8.5703125" style="5" customWidth="1"/>
-    <col min="2309" max="2309" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2316" max="2316" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2317" width="11.28515625" style="5" customWidth="1"/>
-    <col min="2318" max="2318" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2321" width="14.7109375" style="5" customWidth="1"/>
-    <col min="2322" max="2324" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2325" max="2327" width="14.7109375" style="5" customWidth="1"/>
-    <col min="2328" max="2328" width="10.5703125" style="5" customWidth="1"/>
-    <col min="2329" max="2329" width="2" style="5" customWidth="1"/>
-    <col min="2330" max="2330" width="12" style="5" customWidth="1"/>
-    <col min="2331" max="2331" width="12.7109375" style="5"/>
-    <col min="2332" max="2332" width="2" style="5" customWidth="1"/>
-    <col min="2333" max="2334" width="16.28515625" style="5" customWidth="1"/>
-    <col min="2335" max="2336" width="12.7109375" style="5"/>
-    <col min="2337" max="2338" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2339" max="2560" width="12.7109375" style="5"/>
-    <col min="2561" max="2561" width="54.28515625" style="5" customWidth="1"/>
-    <col min="2562" max="2562" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2563" max="2563" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="8.5703125" style="5" customWidth="1"/>
-    <col min="2565" max="2565" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2572" max="2572" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2573" width="11.28515625" style="5" customWidth="1"/>
-    <col min="2574" max="2574" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2577" width="14.7109375" style="5" customWidth="1"/>
-    <col min="2578" max="2580" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2581" max="2583" width="14.7109375" style="5" customWidth="1"/>
-    <col min="2584" max="2584" width="10.5703125" style="5" customWidth="1"/>
-    <col min="2585" max="2585" width="2" style="5" customWidth="1"/>
-    <col min="2586" max="2586" width="12" style="5" customWidth="1"/>
-    <col min="2587" max="2587" width="12.7109375" style="5"/>
-    <col min="2588" max="2588" width="2" style="5" customWidth="1"/>
-    <col min="2589" max="2590" width="16.28515625" style="5" customWidth="1"/>
-    <col min="2591" max="2592" width="12.7109375" style="5"/>
-    <col min="2593" max="2594" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2595" max="2816" width="12.7109375" style="5"/>
-    <col min="2817" max="2817" width="54.28515625" style="5" customWidth="1"/>
-    <col min="2818" max="2818" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2819" max="2819" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="8.5703125" style="5" customWidth="1"/>
-    <col min="2821" max="2821" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2828" max="2828" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="2829" max="2829" width="11.28515625" style="5" customWidth="1"/>
-    <col min="2830" max="2830" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2831" max="2833" width="14.7109375" style="5" customWidth="1"/>
-    <col min="2834" max="2836" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2837" max="2839" width="14.7109375" style="5" customWidth="1"/>
-    <col min="2840" max="2840" width="10.5703125" style="5" customWidth="1"/>
-    <col min="2841" max="2841" width="2" style="5" customWidth="1"/>
-    <col min="2842" max="2842" width="12" style="5" customWidth="1"/>
-    <col min="2843" max="2843" width="12.7109375" style="5"/>
-    <col min="2844" max="2844" width="2" style="5" customWidth="1"/>
-    <col min="2845" max="2846" width="16.28515625" style="5" customWidth="1"/>
-    <col min="2847" max="2848" width="12.7109375" style="5"/>
-    <col min="2849" max="2850" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2851" max="3072" width="12.7109375" style="5"/>
-    <col min="3073" max="3073" width="54.28515625" style="5" customWidth="1"/>
-    <col min="3074" max="3074" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3075" max="3075" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="8.5703125" style="5" customWidth="1"/>
-    <col min="3077" max="3077" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3084" max="3084" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3085" width="11.28515625" style="5" customWidth="1"/>
-    <col min="3086" max="3086" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3089" width="14.7109375" style="5" customWidth="1"/>
-    <col min="3090" max="3092" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3093" max="3095" width="14.7109375" style="5" customWidth="1"/>
-    <col min="3096" max="3096" width="10.5703125" style="5" customWidth="1"/>
-    <col min="3097" max="3097" width="2" style="5" customWidth="1"/>
-    <col min="3098" max="3098" width="12" style="5" customWidth="1"/>
-    <col min="3099" max="3099" width="12.7109375" style="5"/>
-    <col min="3100" max="3100" width="2" style="5" customWidth="1"/>
-    <col min="3101" max="3102" width="16.28515625" style="5" customWidth="1"/>
-    <col min="3103" max="3104" width="12.7109375" style="5"/>
-    <col min="3105" max="3106" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3107" max="3328" width="12.7109375" style="5"/>
-    <col min="3329" max="3329" width="54.28515625" style="5" customWidth="1"/>
-    <col min="3330" max="3330" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3331" max="3331" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="8.5703125" style="5" customWidth="1"/>
-    <col min="3333" max="3333" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3340" max="3340" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3341" width="11.28515625" style="5" customWidth="1"/>
-    <col min="3342" max="3342" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3345" width="14.7109375" style="5" customWidth="1"/>
-    <col min="3346" max="3348" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3349" max="3351" width="14.7109375" style="5" customWidth="1"/>
-    <col min="3352" max="3352" width="10.5703125" style="5" customWidth="1"/>
-    <col min="3353" max="3353" width="2" style="5" customWidth="1"/>
-    <col min="3354" max="3354" width="12" style="5" customWidth="1"/>
-    <col min="3355" max="3355" width="12.7109375" style="5"/>
-    <col min="3356" max="3356" width="2" style="5" customWidth="1"/>
-    <col min="3357" max="3358" width="16.28515625" style="5" customWidth="1"/>
-    <col min="3359" max="3360" width="12.7109375" style="5"/>
-    <col min="3361" max="3362" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3363" max="3584" width="12.7109375" style="5"/>
-    <col min="3585" max="3585" width="54.28515625" style="5" customWidth="1"/>
-    <col min="3586" max="3586" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3587" max="3587" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="8.5703125" style="5" customWidth="1"/>
-    <col min="3589" max="3589" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3596" max="3596" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3597" width="11.28515625" style="5" customWidth="1"/>
-    <col min="3598" max="3598" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3601" width="14.7109375" style="5" customWidth="1"/>
-    <col min="3602" max="3604" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3605" max="3607" width="14.7109375" style="5" customWidth="1"/>
-    <col min="3608" max="3608" width="10.5703125" style="5" customWidth="1"/>
-    <col min="3609" max="3609" width="2" style="5" customWidth="1"/>
-    <col min="3610" max="3610" width="12" style="5" customWidth="1"/>
-    <col min="3611" max="3611" width="12.7109375" style="5"/>
-    <col min="3612" max="3612" width="2" style="5" customWidth="1"/>
-    <col min="3613" max="3614" width="16.28515625" style="5" customWidth="1"/>
-    <col min="3615" max="3616" width="12.7109375" style="5"/>
-    <col min="3617" max="3618" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3619" max="3840" width="12.7109375" style="5"/>
-    <col min="3841" max="3841" width="54.28515625" style="5" customWidth="1"/>
-    <col min="3842" max="3842" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3843" max="3843" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="8.5703125" style="5" customWidth="1"/>
-    <col min="3845" max="3845" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3852" max="3852" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3853" max="3853" width="11.28515625" style="5" customWidth="1"/>
-    <col min="3854" max="3854" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3855" max="3857" width="14.7109375" style="5" customWidth="1"/>
-    <col min="3858" max="3860" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3861" max="3863" width="14.7109375" style="5" customWidth="1"/>
-    <col min="3864" max="3864" width="10.5703125" style="5" customWidth="1"/>
-    <col min="3865" max="3865" width="2" style="5" customWidth="1"/>
-    <col min="3866" max="3866" width="12" style="5" customWidth="1"/>
-    <col min="3867" max="3867" width="12.7109375" style="5"/>
-    <col min="3868" max="3868" width="2" style="5" customWidth="1"/>
-    <col min="3869" max="3870" width="16.28515625" style="5" customWidth="1"/>
-    <col min="3871" max="3872" width="12.7109375" style="5"/>
-    <col min="3873" max="3874" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3875" max="4096" width="12.7109375" style="5"/>
-    <col min="4097" max="4097" width="54.28515625" style="5" customWidth="1"/>
-    <col min="4098" max="4098" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4099" max="4099" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="8.5703125" style="5" customWidth="1"/>
-    <col min="4101" max="4101" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="14.85546875" style="5" customWidth="1"/>
-    <col min="4108" max="4108" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4109" width="11.28515625" style="5" customWidth="1"/>
-    <col min="4110" max="4110" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4113" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4114" max="4116" width="14.85546875" style="5" customWidth="1"/>
-    <col min="4117" max="4119" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4120" max="4120" width="10.5703125" style="5" customWidth="1"/>
-    <col min="4121" max="4121" width="2" style="5" customWidth="1"/>
-    <col min="4122" max="4122" width="12" style="5" customWidth="1"/>
-    <col min="4123" max="4123" width="12.7109375" style="5"/>
-    <col min="4124" max="4124" width="2" style="5" customWidth="1"/>
-    <col min="4125" max="4126" width="16.28515625" style="5" customWidth="1"/>
-    <col min="4127" max="4128" width="12.7109375" style="5"/>
-    <col min="4129" max="4130" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4131" max="4352" width="12.7109375" style="5"/>
-    <col min="4353" max="4353" width="54.28515625" style="5" customWidth="1"/>
-    <col min="4354" max="4354" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4355" max="4355" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="8.5703125" style="5" customWidth="1"/>
-    <col min="4357" max="4357" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="14.85546875" style="5" customWidth="1"/>
-    <col min="4364" max="4364" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4365" width="11.28515625" style="5" customWidth="1"/>
-    <col min="4366" max="4366" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4369" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4370" max="4372" width="14.85546875" style="5" customWidth="1"/>
-    <col min="4373" max="4375" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4376" max="4376" width="10.5703125" style="5" customWidth="1"/>
-    <col min="4377" max="4377" width="2" style="5" customWidth="1"/>
-    <col min="4378" max="4378" width="12" style="5" customWidth="1"/>
-    <col min="4379" max="4379" width="12.7109375" style="5"/>
-    <col min="4380" max="4380" width="2" style="5" customWidth="1"/>
-    <col min="4381" max="4382" width="16.28515625" style="5" customWidth="1"/>
-    <col min="4383" max="4384" width="12.7109375" style="5"/>
-    <col min="4385" max="4386" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4387" max="4608" width="12.7109375" style="5"/>
-    <col min="4609" max="4609" width="54.28515625" style="5" customWidth="1"/>
-    <col min="4610" max="4610" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4611" max="4611" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="8.5703125" style="5" customWidth="1"/>
-    <col min="4613" max="4613" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="14.85546875" style="5" customWidth="1"/>
-    <col min="4620" max="4620" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4621" width="11.28515625" style="5" customWidth="1"/>
-    <col min="4622" max="4622" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4625" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4626" max="4628" width="14.85546875" style="5" customWidth="1"/>
-    <col min="4629" max="4631" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4632" max="4632" width="10.5703125" style="5" customWidth="1"/>
-    <col min="4633" max="4633" width="2" style="5" customWidth="1"/>
-    <col min="4634" max="4634" width="12" style="5" customWidth="1"/>
-    <col min="4635" max="4635" width="12.7109375" style="5"/>
-    <col min="4636" max="4636" width="2" style="5" customWidth="1"/>
-    <col min="4637" max="4638" width="16.28515625" style="5" customWidth="1"/>
-    <col min="4639" max="4640" width="12.7109375" style="5"/>
-    <col min="4641" max="4642" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4643" max="4864" width="12.7109375" style="5"/>
-    <col min="4865" max="4865" width="54.28515625" style="5" customWidth="1"/>
-    <col min="4866" max="4866" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4867" max="4867" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="8.5703125" style="5" customWidth="1"/>
-    <col min="4869" max="4869" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="14.85546875" style="5" customWidth="1"/>
-    <col min="4876" max="4876" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4877" max="4877" width="11.28515625" style="5" customWidth="1"/>
-    <col min="4878" max="4878" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4879" max="4881" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4882" max="4884" width="14.85546875" style="5" customWidth="1"/>
-    <col min="4885" max="4887" width="14.7109375" style="5" customWidth="1"/>
-    <col min="4888" max="4888" width="10.5703125" style="5" customWidth="1"/>
-    <col min="4889" max="4889" width="2" style="5" customWidth="1"/>
-    <col min="4890" max="4890" width="12" style="5" customWidth="1"/>
-    <col min="4891" max="4891" width="12.7109375" style="5"/>
-    <col min="4892" max="4892" width="2" style="5" customWidth="1"/>
-    <col min="4893" max="4894" width="16.28515625" style="5" customWidth="1"/>
-    <col min="4895" max="4896" width="12.7109375" style="5"/>
-    <col min="4897" max="4898" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4899" max="5120" width="12.7109375" style="5"/>
-    <col min="5121" max="5121" width="54.28515625" style="5" customWidth="1"/>
-    <col min="5122" max="5122" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5123" max="5123" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="8.5703125" style="5" customWidth="1"/>
-    <col min="5125" max="5125" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5132" max="5132" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5133" width="11.28515625" style="5" customWidth="1"/>
-    <col min="5134" max="5134" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5137" width="14.7109375" style="5" customWidth="1"/>
-    <col min="5138" max="5140" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5141" max="5143" width="14.7109375" style="5" customWidth="1"/>
-    <col min="5144" max="5144" width="10.5703125" style="5" customWidth="1"/>
-    <col min="5145" max="5145" width="2" style="5" customWidth="1"/>
-    <col min="5146" max="5146" width="12" style="5" customWidth="1"/>
-    <col min="5147" max="5147" width="12.7109375" style="5"/>
-    <col min="5148" max="5148" width="2" style="5" customWidth="1"/>
-    <col min="5149" max="5150" width="16.28515625" style="5" customWidth="1"/>
-    <col min="5151" max="5152" width="12.7109375" style="5"/>
-    <col min="5153" max="5154" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5155" max="5376" width="12.7109375" style="5"/>
-    <col min="5377" max="5377" width="54.28515625" style="5" customWidth="1"/>
-    <col min="5378" max="5378" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5379" max="5379" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="8.5703125" style="5" customWidth="1"/>
-    <col min="5381" max="5381" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5388" max="5388" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5389" width="11.28515625" style="5" customWidth="1"/>
-    <col min="5390" max="5390" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5393" width="14.7109375" style="5" customWidth="1"/>
-    <col min="5394" max="5396" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5397" max="5399" width="14.7109375" style="5" customWidth="1"/>
-    <col min="5400" max="5400" width="10.5703125" style="5" customWidth="1"/>
-    <col min="5401" max="5401" width="2" style="5" customWidth="1"/>
-    <col min="5402" max="5402" width="12" style="5" customWidth="1"/>
-    <col min="5403" max="5403" width="12.7109375" style="5"/>
-    <col min="5404" max="5404" width="2" style="5" customWidth="1"/>
-    <col min="5405" max="5406" width="16.28515625" style="5" customWidth="1"/>
-    <col min="5407" max="5408" width="12.7109375" style="5"/>
-    <col min="5409" max="5410" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5411" max="5632" width="12.7109375" style="5"/>
-    <col min="5633" max="5633" width="54.28515625" style="5" customWidth="1"/>
-    <col min="5634" max="5634" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5635" max="5635" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="8.5703125" style="5" customWidth="1"/>
-    <col min="5637" max="5637" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5644" max="5644" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5645" width="11.28515625" style="5" customWidth="1"/>
-    <col min="5646" max="5646" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5649" width="14.7109375" style="5" customWidth="1"/>
-    <col min="5650" max="5652" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5653" max="5655" width="14.7109375" style="5" customWidth="1"/>
-    <col min="5656" max="5656" width="10.5703125" style="5" customWidth="1"/>
-    <col min="5657" max="5657" width="2" style="5" customWidth="1"/>
-    <col min="5658" max="5658" width="12" style="5" customWidth="1"/>
-    <col min="5659" max="5659" width="12.7109375" style="5"/>
-    <col min="5660" max="5660" width="2" style="5" customWidth="1"/>
-    <col min="5661" max="5662" width="16.28515625" style="5" customWidth="1"/>
-    <col min="5663" max="5664" width="12.7109375" style="5"/>
-    <col min="5665" max="5666" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5667" max="5888" width="12.7109375" style="5"/>
-    <col min="5889" max="5889" width="54.28515625" style="5" customWidth="1"/>
-    <col min="5890" max="5890" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5891" max="5891" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="8.5703125" style="5" customWidth="1"/>
-    <col min="5893" max="5893" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5900" max="5900" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5901" max="5901" width="11.28515625" style="5" customWidth="1"/>
-    <col min="5902" max="5902" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5903" max="5905" width="14.7109375" style="5" customWidth="1"/>
-    <col min="5906" max="5908" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5909" max="5911" width="14.7109375" style="5" customWidth="1"/>
-    <col min="5912" max="5912" width="10.5703125" style="5" customWidth="1"/>
-    <col min="5913" max="5913" width="2" style="5" customWidth="1"/>
-    <col min="5914" max="5914" width="12" style="5" customWidth="1"/>
-    <col min="5915" max="5915" width="12.7109375" style="5"/>
-    <col min="5916" max="5916" width="2" style="5" customWidth="1"/>
-    <col min="5917" max="5918" width="16.28515625" style="5" customWidth="1"/>
-    <col min="5919" max="5920" width="12.7109375" style="5"/>
-    <col min="5921" max="5922" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5923" max="6144" width="12.7109375" style="5"/>
-    <col min="6145" max="6145" width="54.28515625" style="5" customWidth="1"/>
-    <col min="6146" max="6146" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6147" max="6147" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="8.5703125" style="5" customWidth="1"/>
-    <col min="6149" max="6149" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="14.85546875" style="5" customWidth="1"/>
-    <col min="6156" max="6156" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6157" width="11.28515625" style="5" customWidth="1"/>
-    <col min="6158" max="6158" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6161" width="14.7109375" style="5" customWidth="1"/>
-    <col min="6162" max="6164" width="14.85546875" style="5" customWidth="1"/>
-    <col min="6165" max="6167" width="14.7109375" style="5" customWidth="1"/>
-    <col min="6168" max="6168" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6169" max="6169" width="2" style="5" customWidth="1"/>
-    <col min="6170" max="6170" width="12" style="5" customWidth="1"/>
-    <col min="6171" max="6171" width="12.7109375" style="5"/>
-    <col min="6172" max="6172" width="2" style="5" customWidth="1"/>
-    <col min="6173" max="6174" width="16.28515625" style="5" customWidth="1"/>
-    <col min="6175" max="6176" width="12.7109375" style="5"/>
-    <col min="6177" max="6178" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6179" max="6400" width="12.7109375" style="5"/>
-    <col min="6401" max="6401" width="54.28515625" style="5" customWidth="1"/>
-    <col min="6402" max="6402" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6403" max="6403" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="8.5703125" style="5" customWidth="1"/>
-    <col min="6405" max="6405" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="14.85546875" style="5" customWidth="1"/>
-    <col min="6412" max="6412" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6413" width="11.28515625" style="5" customWidth="1"/>
-    <col min="6414" max="6414" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6417" width="14.7109375" style="5" customWidth="1"/>
-    <col min="6418" max="6420" width="14.85546875" style="5" customWidth="1"/>
-    <col min="6421" max="6423" width="14.7109375" style="5" customWidth="1"/>
-    <col min="6424" max="6424" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6425" max="6425" width="2" style="5" customWidth="1"/>
-    <col min="6426" max="6426" width="12" style="5" customWidth="1"/>
-    <col min="6427" max="6427" width="12.7109375" style="5"/>
-    <col min="6428" max="6428" width="2" style="5" customWidth="1"/>
-    <col min="6429" max="6430" width="16.28515625" style="5" customWidth="1"/>
-    <col min="6431" max="6432" width="12.7109375" style="5"/>
-    <col min="6433" max="6434" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6435" max="6656" width="12.7109375" style="5"/>
-    <col min="6657" max="6657" width="54.28515625" style="5" customWidth="1"/>
-    <col min="6658" max="6658" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6659" max="6659" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="8.5703125" style="5" customWidth="1"/>
-    <col min="6661" max="6661" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="14.85546875" style="5" customWidth="1"/>
-    <col min="6668" max="6668" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6669" width="11.28515625" style="5" customWidth="1"/>
-    <col min="6670" max="6670" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6673" width="14.7109375" style="5" customWidth="1"/>
-    <col min="6674" max="6676" width="14.85546875" style="5" customWidth="1"/>
-    <col min="6677" max="6679" width="14.7109375" style="5" customWidth="1"/>
-    <col min="6680" max="6680" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6681" max="6681" width="2" style="5" customWidth="1"/>
-    <col min="6682" max="6682" width="12" style="5" customWidth="1"/>
-    <col min="6683" max="6683" width="12.7109375" style="5"/>
-    <col min="6684" max="6684" width="2" style="5" customWidth="1"/>
-    <col min="6685" max="6686" width="16.28515625" style="5" customWidth="1"/>
-    <col min="6687" max="6688" width="12.7109375" style="5"/>
-    <col min="6689" max="6690" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6691" max="6912" width="12.7109375" style="5"/>
-    <col min="6913" max="6913" width="54.28515625" style="5" customWidth="1"/>
-    <col min="6914" max="6914" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6915" max="6915" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="8.5703125" style="5" customWidth="1"/>
-    <col min="6917" max="6917" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="14.85546875" style="5" customWidth="1"/>
-    <col min="6924" max="6924" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6925" max="6925" width="11.28515625" style="5" customWidth="1"/>
-    <col min="6926" max="6926" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6927" max="6929" width="14.7109375" style="5" customWidth="1"/>
-    <col min="6930" max="6932" width="14.85546875" style="5" customWidth="1"/>
-    <col min="6933" max="6935" width="14.7109375" style="5" customWidth="1"/>
-    <col min="6936" max="6936" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6937" max="6937" width="2" style="5" customWidth="1"/>
-    <col min="6938" max="6938" width="12" style="5" customWidth="1"/>
-    <col min="6939" max="6939" width="12.7109375" style="5"/>
-    <col min="6940" max="6940" width="2" style="5" customWidth="1"/>
-    <col min="6941" max="6942" width="16.28515625" style="5" customWidth="1"/>
-    <col min="6943" max="6944" width="12.7109375" style="5"/>
-    <col min="6945" max="6946" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6947" max="7168" width="12.7109375" style="5"/>
-    <col min="7169" max="7169" width="54.28515625" style="5" customWidth="1"/>
-    <col min="7170" max="7170" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7171" max="7171" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="8.5703125" style="5" customWidth="1"/>
-    <col min="7173" max="7173" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="14.85546875" style="5" customWidth="1"/>
-    <col min="7180" max="7180" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7181" width="11.28515625" style="5" customWidth="1"/>
-    <col min="7182" max="7182" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7185" width="14.7109375" style="5" customWidth="1"/>
-    <col min="7186" max="7188" width="14.85546875" style="5" customWidth="1"/>
-    <col min="7189" max="7191" width="14.7109375" style="5" customWidth="1"/>
-    <col min="7192" max="7192" width="10.5703125" style="5" customWidth="1"/>
-    <col min="7193" max="7193" width="2" style="5" customWidth="1"/>
-    <col min="7194" max="7194" width="12" style="5" customWidth="1"/>
-    <col min="7195" max="7195" width="12.7109375" style="5"/>
-    <col min="7196" max="7196" width="2" style="5" customWidth="1"/>
-    <col min="7197" max="7198" width="16.28515625" style="5" customWidth="1"/>
-    <col min="7199" max="7200" width="12.7109375" style="5"/>
-    <col min="7201" max="7202" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7203" max="7424" width="12.7109375" style="5"/>
-    <col min="7425" max="7425" width="54.28515625" style="5" customWidth="1"/>
-    <col min="7426" max="7426" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7427" max="7427" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="8.5703125" style="5" customWidth="1"/>
-    <col min="7429" max="7429" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="14.85546875" style="5" customWidth="1"/>
-    <col min="7436" max="7436" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7437" width="11.28515625" style="5" customWidth="1"/>
-    <col min="7438" max="7438" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7441" width="14.7109375" style="5" customWidth="1"/>
-    <col min="7442" max="7444" width="14.85546875" style="5" customWidth="1"/>
-    <col min="7445" max="7447" width="14.7109375" style="5" customWidth="1"/>
-    <col min="7448" max="7448" width="10.5703125" style="5" customWidth="1"/>
-    <col min="7449" max="7449" width="2" style="5" customWidth="1"/>
-    <col min="7450" max="7450" width="12" style="5" customWidth="1"/>
-    <col min="7451" max="7451" width="12.7109375" style="5"/>
-    <col min="7452" max="7452" width="2" style="5" customWidth="1"/>
-    <col min="7453" max="7454" width="16.28515625" style="5" customWidth="1"/>
-    <col min="7455" max="7456" width="12.7109375" style="5"/>
-    <col min="7457" max="7458" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7459" max="7680" width="12.7109375" style="5"/>
-    <col min="7681" max="7681" width="54.28515625" style="5" customWidth="1"/>
-    <col min="7682" max="7682" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7683" max="7683" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="8.5703125" style="5" customWidth="1"/>
-    <col min="7685" max="7685" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="14.85546875" style="5" customWidth="1"/>
-    <col min="7692" max="7692" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7693" width="11.28515625" style="5" customWidth="1"/>
-    <col min="7694" max="7694" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7697" width="14.7109375" style="5" customWidth="1"/>
-    <col min="7698" max="7700" width="14.85546875" style="5" customWidth="1"/>
-    <col min="7701" max="7703" width="14.7109375" style="5" customWidth="1"/>
-    <col min="7704" max="7704" width="10.5703125" style="5" customWidth="1"/>
-    <col min="7705" max="7705" width="2" style="5" customWidth="1"/>
-    <col min="7706" max="7706" width="12" style="5" customWidth="1"/>
-    <col min="7707" max="7707" width="12.7109375" style="5"/>
-    <col min="7708" max="7708" width="2" style="5" customWidth="1"/>
-    <col min="7709" max="7710" width="16.28515625" style="5" customWidth="1"/>
-    <col min="7711" max="7712" width="12.7109375" style="5"/>
-    <col min="7713" max="7714" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7715" max="7936" width="12.7109375" style="5"/>
-    <col min="7937" max="7937" width="54.28515625" style="5" customWidth="1"/>
-    <col min="7938" max="7938" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7939" max="7939" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="8.5703125" style="5" customWidth="1"/>
-    <col min="7941" max="7941" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="14.85546875" style="5" customWidth="1"/>
-    <col min="7948" max="7948" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="7949" max="7949" width="11.28515625" style="5" customWidth="1"/>
-    <col min="7950" max="7950" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7951" max="7953" width="14.7109375" style="5" customWidth="1"/>
-    <col min="7954" max="7956" width="14.85546875" style="5" customWidth="1"/>
-    <col min="7957" max="7959" width="14.7109375" style="5" customWidth="1"/>
-    <col min="7960" max="7960" width="10.5703125" style="5" customWidth="1"/>
-    <col min="7961" max="7961" width="2" style="5" customWidth="1"/>
-    <col min="7962" max="7962" width="12" style="5" customWidth="1"/>
-    <col min="7963" max="7963" width="12.7109375" style="5"/>
-    <col min="7964" max="7964" width="2" style="5" customWidth="1"/>
-    <col min="7965" max="7966" width="16.28515625" style="5" customWidth="1"/>
-    <col min="7967" max="7968" width="12.7109375" style="5"/>
-    <col min="7969" max="7970" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7971" max="8192" width="12.7109375" style="5"/>
-    <col min="8193" max="8193" width="54.28515625" style="5" customWidth="1"/>
-    <col min="8194" max="8194" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8195" max="8195" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="8.5703125" style="5" customWidth="1"/>
-    <col min="8197" max="8197" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="14.85546875" style="5" customWidth="1"/>
-    <col min="8204" max="8204" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8205" width="11.28515625" style="5" customWidth="1"/>
-    <col min="8206" max="8206" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8209" width="14.7109375" style="5" customWidth="1"/>
-    <col min="8210" max="8212" width="14.85546875" style="5" customWidth="1"/>
-    <col min="8213" max="8215" width="14.7109375" style="5" customWidth="1"/>
-    <col min="8216" max="8216" width="10.5703125" style="5" customWidth="1"/>
-    <col min="8217" max="8217" width="2" style="5" customWidth="1"/>
-    <col min="8218" max="8218" width="12" style="5" customWidth="1"/>
-    <col min="8219" max="8219" width="12.7109375" style="5"/>
-    <col min="8220" max="8220" width="2" style="5" customWidth="1"/>
-    <col min="8221" max="8222" width="16.28515625" style="5" customWidth="1"/>
-    <col min="8223" max="8224" width="12.7109375" style="5"/>
-    <col min="8225" max="8226" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8227" max="8448" width="12.7109375" style="5"/>
-    <col min="8449" max="8449" width="54.28515625" style="5" customWidth="1"/>
-    <col min="8450" max="8450" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8451" max="8451" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="8.5703125" style="5" customWidth="1"/>
-    <col min="8453" max="8453" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="14.85546875" style="5" customWidth="1"/>
-    <col min="8460" max="8460" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8461" width="11.28515625" style="5" customWidth="1"/>
-    <col min="8462" max="8462" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8465" width="14.7109375" style="5" customWidth="1"/>
-    <col min="8466" max="8468" width="14.85546875" style="5" customWidth="1"/>
-    <col min="8469" max="8471" width="14.7109375" style="5" customWidth="1"/>
-    <col min="8472" max="8472" width="10.5703125" style="5" customWidth="1"/>
-    <col min="8473" max="8473" width="2" style="5" customWidth="1"/>
-    <col min="8474" max="8474" width="12" style="5" customWidth="1"/>
-    <col min="8475" max="8475" width="12.7109375" style="5"/>
-    <col min="8476" max="8476" width="2" style="5" customWidth="1"/>
-    <col min="8477" max="8478" width="16.28515625" style="5" customWidth="1"/>
-    <col min="8479" max="8480" width="12.7109375" style="5"/>
-    <col min="8481" max="8482" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8483" max="8704" width="12.7109375" style="5"/>
-    <col min="8705" max="8705" width="54.28515625" style="5" customWidth="1"/>
-    <col min="8706" max="8706" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8707" max="8707" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="8.5703125" style="5" customWidth="1"/>
-    <col min="8709" max="8709" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="14.85546875" style="5" customWidth="1"/>
-    <col min="8716" max="8716" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8717" width="11.28515625" style="5" customWidth="1"/>
-    <col min="8718" max="8718" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8721" width="14.7109375" style="5" customWidth="1"/>
-    <col min="8722" max="8724" width="14.85546875" style="5" customWidth="1"/>
-    <col min="8725" max="8727" width="14.7109375" style="5" customWidth="1"/>
-    <col min="8728" max="8728" width="10.5703125" style="5" customWidth="1"/>
-    <col min="8729" max="8729" width="2" style="5" customWidth="1"/>
-    <col min="8730" max="8730" width="12" style="5" customWidth="1"/>
-    <col min="8731" max="8731" width="12.7109375" style="5"/>
-    <col min="8732" max="8732" width="2" style="5" customWidth="1"/>
-    <col min="8733" max="8734" width="16.28515625" style="5" customWidth="1"/>
-    <col min="8735" max="8736" width="12.7109375" style="5"/>
-    <col min="8737" max="8738" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8739" max="8960" width="12.7109375" style="5"/>
-    <col min="8961" max="8961" width="54.28515625" style="5" customWidth="1"/>
-    <col min="8962" max="8962" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8963" max="8963" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="8.5703125" style="5" customWidth="1"/>
-    <col min="8965" max="8965" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="14.85546875" style="5" customWidth="1"/>
-    <col min="8972" max="8972" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8973" max="8973" width="11.28515625" style="5" customWidth="1"/>
-    <col min="8974" max="8974" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8975" max="8977" width="14.7109375" style="5" customWidth="1"/>
-    <col min="8978" max="8980" width="14.85546875" style="5" customWidth="1"/>
-    <col min="8981" max="8983" width="14.7109375" style="5" customWidth="1"/>
-    <col min="8984" max="8984" width="10.5703125" style="5" customWidth="1"/>
-    <col min="8985" max="8985" width="2" style="5" customWidth="1"/>
-    <col min="8986" max="8986" width="12" style="5" customWidth="1"/>
-    <col min="8987" max="8987" width="12.7109375" style="5"/>
-    <col min="8988" max="8988" width="2" style="5" customWidth="1"/>
-    <col min="8989" max="8990" width="16.28515625" style="5" customWidth="1"/>
-    <col min="8991" max="8992" width="12.7109375" style="5"/>
-    <col min="8993" max="8994" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8995" max="9216" width="12.7109375" style="5"/>
-    <col min="9217" max="9217" width="54.28515625" style="5" customWidth="1"/>
-    <col min="9218" max="9218" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="9219" max="9219" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="8.5703125" style="5" customWidth="1"/>
-    <col min="9221" max="9221" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="14.85546875" style="5" customWidth="1"/>
-    <col min="9228" max="9228" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9229" width="11.28515625" style="5" customWidth="1"/>
-    <col min="9230" max="9230" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9233" width="14.7109375" style="5" customWidth="1"/>
-    <col min="9234" max="9236" width="14.85546875" style="5" customWidth="1"/>
-    <col min="9237" max="9239" width="14.7109375" style="5" customWidth="1"/>
-    <col min="9240" max="9240" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9241" max="9241" width="2" style="5" customWidth="1"/>
-    <col min="9242" max="9242" width="12" style="5" customWidth="1"/>
-    <col min="9243" max="9243" width="12.7109375" style="5"/>
-    <col min="9244" max="9244" width="2" style="5" customWidth="1"/>
-    <col min="9245" max="9246" width="16.28515625" style="5" customWidth="1"/>
-    <col min="9247" max="9248" width="12.7109375" style="5"/>
-    <col min="9249" max="9250" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="9251" max="9472" width="12.7109375" style="5"/>
-    <col min="9473" max="9473" width="54.28515625" style="5" customWidth="1"/>
-    <col min="9474" max="9474" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="9475" max="9475" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="8.5703125" style="5" customWidth="1"/>
-    <col min="9477" max="9477" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="14.85546875" style="5" customWidth="1"/>
-    <col min="9484" max="9484" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9485" width="11.28515625" style="5" customWidth="1"/>
-    <col min="9486" max="9486" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9489" width="14.7109375" style="5" customWidth="1"/>
-    <col min="9490" max="9492" width="14.85546875" style="5" customWidth="1"/>
-    <col min="9493" max="9495" width="14.7109375" style="5" customWidth="1"/>
-    <col min="9496" max="9496" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9497" max="9497" width="2" style="5" customWidth="1"/>
-    <col min="9498" max="9498" width="12" style="5" customWidth="1"/>
-    <col min="9499" max="9499" width="12.7109375" style="5"/>
-    <col min="9500" max="9500" width="2" style="5" customWidth="1"/>
-    <col min="9501" max="9502" width="16.28515625" style="5" customWidth="1"/>
-    <col min="9503" max="9504" width="12.7109375" style="5"/>
-    <col min="9505" max="9506" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="9507" max="9728" width="12.7109375" style="5"/>
-    <col min="9729" max="9729" width="54.28515625" style="5" customWidth="1"/>
-    <col min="9730" max="9730" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="9731" max="9731" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="8.5703125" style="5" customWidth="1"/>
-    <col min="9733" max="9733" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="14.85546875" style="5" customWidth="1"/>
-    <col min="9740" max="9740" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9741" width="11.28515625" style="5" customWidth="1"/>
-    <col min="9742" max="9742" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9745" width="14.7109375" style="5" customWidth="1"/>
-    <col min="9746" max="9748" width="14.85546875" style="5" customWidth="1"/>
-    <col min="9749" max="9751" width="14.7109375" style="5" customWidth="1"/>
-    <col min="9752" max="9752" width="10.5703125" style="5" customWidth="1"/>
-    <col min="9753" max="9753" width="2" style="5" customWidth="1"/>
-    <col min="9754" max="9754" width="12" style="5" customWidth="1"/>
-    <col min="9755" max="9755" width="12.7109375" style="5"/>
-    <col min="9756" max="9756" width="2" style="5" customWidth="1"/>
-    <col min="9757" max="9758" width="16.28515625" style="5" customWidth="1"/>
-    <col min="9759" max="9760" width="12.7109375" style="5"/>
-    <col min="9761" max="9762" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="9763" max="9984" width="12.7109375" style="5"/>
-    <col min="9985" max="9985" width="54.28515625" style="5" customWidth="1"/>
-    <col min="9986" max="9986" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="9987" max="9987" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="8.5703125" style="5" customWidth="1"/>
-    <col min="9989" max="9989" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="14.85546875" style="5" customWidth="1"/>
-    <col min="9996" max="9996" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9997" max="9997" width="11.28515625" style="5" customWidth="1"/>
-    <col min="9998" max="9998" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9999" max="10001" width="14.7109375" style="5" customWidth="1"/>
-    <col min="10002" max="10004" width="14.85546875" style="5" customWidth="1"/>
-    <col min="10005" max="10007" width="14.7109375" style="5" customWidth="1"/>
-    <col min="10008" max="10008" width="10.5703125" style="5" customWidth="1"/>
-    <col min="10009" max="10009" width="2" style="5" customWidth="1"/>
-    <col min="10010" max="10010" width="12" style="5" customWidth="1"/>
-    <col min="10011" max="10011" width="12.7109375" style="5"/>
-    <col min="10012" max="10012" width="2" style="5" customWidth="1"/>
-    <col min="10013" max="10014" width="16.28515625" style="5" customWidth="1"/>
-    <col min="10015" max="10016" width="12.7109375" style="5"/>
-    <col min="10017" max="10018" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10019" max="10240" width="12.7109375" style="5"/>
-    <col min="10241" max="10241" width="54.28515625" style="5" customWidth="1"/>
-    <col min="10242" max="10242" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10243" max="10243" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="8.5703125" style="5" customWidth="1"/>
-    <col min="10245" max="10245" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="14.85546875" style="5" customWidth="1"/>
-    <col min="10252" max="10252" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10253" width="11.28515625" style="5" customWidth="1"/>
-    <col min="10254" max="10254" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10257" width="14.7109375" style="5" customWidth="1"/>
-    <col min="10258" max="10260" width="14.85546875" style="5" customWidth="1"/>
-    <col min="10261" max="10263" width="14.7109375" style="5" customWidth="1"/>
-    <col min="10264" max="10264" width="10.5703125" style="5" customWidth="1"/>
-    <col min="10265" max="10265" width="2" style="5" customWidth="1"/>
-    <col min="10266" max="10266" width="12" style="5" customWidth="1"/>
-    <col min="10267" max="10267" width="12.7109375" style="5"/>
-    <col min="10268" max="10268" width="2" style="5" customWidth="1"/>
-    <col min="10269" max="10270" width="16.28515625" style="5" customWidth="1"/>
-    <col min="10271" max="10272" width="12.7109375" style="5"/>
-    <col min="10273" max="10274" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10275" max="10496" width="12.7109375" style="5"/>
-    <col min="10497" max="10497" width="54.28515625" style="5" customWidth="1"/>
-    <col min="10498" max="10498" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10499" max="10499" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="8.5703125" style="5" customWidth="1"/>
-    <col min="10501" max="10501" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="14.85546875" style="5" customWidth="1"/>
-    <col min="10508" max="10508" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10509" width="11.28515625" style="5" customWidth="1"/>
-    <col min="10510" max="10510" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10513" width="14.7109375" style="5" customWidth="1"/>
-    <col min="10514" max="10516" width="14.85546875" style="5" customWidth="1"/>
-    <col min="10517" max="10519" width="14.7109375" style="5" customWidth="1"/>
-    <col min="10520" max="10520" width="10.5703125" style="5" customWidth="1"/>
-    <col min="10521" max="10521" width="2" style="5" customWidth="1"/>
-    <col min="10522" max="10522" width="12" style="5" customWidth="1"/>
-    <col min="10523" max="10523" width="12.7109375" style="5"/>
-    <col min="10524" max="10524" width="2" style="5" customWidth="1"/>
-    <col min="10525" max="10526" width="16.28515625" style="5" customWidth="1"/>
-    <col min="10527" max="10528" width="12.7109375" style="5"/>
-    <col min="10529" max="10530" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10531" max="10752" width="12.7109375" style="5"/>
-    <col min="10753" max="10753" width="54.28515625" style="5" customWidth="1"/>
-    <col min="10754" max="10754" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10755" max="10755" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="8.5703125" style="5" customWidth="1"/>
-    <col min="10757" max="10757" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="14.85546875" style="5" customWidth="1"/>
-    <col min="10764" max="10764" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="10765" max="10765" width="11.28515625" style="5" customWidth="1"/>
-    <col min="10766" max="10766" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10767" max="10769" width="14.7109375" style="5" customWidth="1"/>
-    <col min="10770" max="10772" width="14.85546875" style="5" customWidth="1"/>
-    <col min="10773" max="10775" width="14.7109375" style="5" customWidth="1"/>
-    <col min="10776" max="10776" width="10.5703125" style="5" customWidth="1"/>
-    <col min="10777" max="10777" width="2" style="5" customWidth="1"/>
-    <col min="10778" max="10778" width="12" style="5" customWidth="1"/>
-    <col min="10779" max="10779" width="12.7109375" style="5"/>
-    <col min="10780" max="10780" width="2" style="5" customWidth="1"/>
-    <col min="10781" max="10782" width="16.28515625" style="5" customWidth="1"/>
-    <col min="10783" max="10784" width="12.7109375" style="5"/>
-    <col min="10785" max="10786" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10787" max="11008" width="12.7109375" style="5"/>
-    <col min="11009" max="11009" width="54.28515625" style="5" customWidth="1"/>
-    <col min="11010" max="11010" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11011" max="11011" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="8.5703125" style="5" customWidth="1"/>
-    <col min="11013" max="11013" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="14.85546875" style="5" customWidth="1"/>
-    <col min="11020" max="11020" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11021" width="11.28515625" style="5" customWidth="1"/>
-    <col min="11022" max="11022" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11025" width="14.7109375" style="5" customWidth="1"/>
-    <col min="11026" max="11028" width="14.85546875" style="5" customWidth="1"/>
-    <col min="11029" max="11031" width="14.7109375" style="5" customWidth="1"/>
-    <col min="11032" max="11032" width="10.5703125" style="5" customWidth="1"/>
-    <col min="11033" max="11033" width="2" style="5" customWidth="1"/>
-    <col min="11034" max="11034" width="12" style="5" customWidth="1"/>
-    <col min="11035" max="11035" width="12.7109375" style="5"/>
-    <col min="11036" max="11036" width="2" style="5" customWidth="1"/>
-    <col min="11037" max="11038" width="16.28515625" style="5" customWidth="1"/>
-    <col min="11039" max="11040" width="12.7109375" style="5"/>
-    <col min="11041" max="11042" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11043" max="11264" width="12.7109375" style="5"/>
-    <col min="11265" max="11265" width="54.28515625" style="5" customWidth="1"/>
-    <col min="11266" max="11266" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11267" max="11267" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="8.5703125" style="5" customWidth="1"/>
-    <col min="11269" max="11269" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="14.85546875" style="5" customWidth="1"/>
-    <col min="11276" max="11276" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11277" width="11.28515625" style="5" customWidth="1"/>
-    <col min="11278" max="11278" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11281" width="14.7109375" style="5" customWidth="1"/>
-    <col min="11282" max="11284" width="14.85546875" style="5" customWidth="1"/>
-    <col min="11285" max="11287" width="14.7109375" style="5" customWidth="1"/>
-    <col min="11288" max="11288" width="10.5703125" style="5" customWidth="1"/>
-    <col min="11289" max="11289" width="2" style="5" customWidth="1"/>
-    <col min="11290" max="11290" width="12" style="5" customWidth="1"/>
-    <col min="11291" max="11291" width="12.7109375" style="5"/>
-    <col min="11292" max="11292" width="2" style="5" customWidth="1"/>
-    <col min="11293" max="11294" width="16.28515625" style="5" customWidth="1"/>
-    <col min="11295" max="11296" width="12.7109375" style="5"/>
-    <col min="11297" max="11298" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11299" max="11520" width="12.7109375" style="5"/>
-    <col min="11521" max="11521" width="54.28515625" style="5" customWidth="1"/>
-    <col min="11522" max="11522" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11523" max="11523" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="8.5703125" style="5" customWidth="1"/>
-    <col min="11525" max="11525" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="14.85546875" style="5" customWidth="1"/>
-    <col min="11532" max="11532" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11533" width="11.28515625" style="5" customWidth="1"/>
-    <col min="11534" max="11534" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11537" width="14.7109375" style="5" customWidth="1"/>
-    <col min="11538" max="11540" width="14.85546875" style="5" customWidth="1"/>
-    <col min="11541" max="11543" width="14.7109375" style="5" customWidth="1"/>
-    <col min="11544" max="11544" width="10.5703125" style="5" customWidth="1"/>
-    <col min="11545" max="11545" width="2" style="5" customWidth="1"/>
-    <col min="11546" max="11546" width="12" style="5" customWidth="1"/>
-    <col min="11547" max="11547" width="12.7109375" style="5"/>
-    <col min="11548" max="11548" width="2" style="5" customWidth="1"/>
-    <col min="11549" max="11550" width="16.28515625" style="5" customWidth="1"/>
-    <col min="11551" max="11552" width="12.7109375" style="5"/>
-    <col min="11553" max="11554" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11555" max="11776" width="12.7109375" style="5"/>
-    <col min="11777" max="11777" width="54.28515625" style="5" customWidth="1"/>
-    <col min="11778" max="11778" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11779" max="11779" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="8.5703125" style="5" customWidth="1"/>
-    <col min="11781" max="11781" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="14.85546875" style="5" customWidth="1"/>
-    <col min="11788" max="11788" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="11789" max="11789" width="11.28515625" style="5" customWidth="1"/>
-    <col min="11790" max="11790" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11791" max="11793" width="14.7109375" style="5" customWidth="1"/>
-    <col min="11794" max="11796" width="14.85546875" style="5" customWidth="1"/>
-    <col min="11797" max="11799" width="14.7109375" style="5" customWidth="1"/>
-    <col min="11800" max="11800" width="10.5703125" style="5" customWidth="1"/>
-    <col min="11801" max="11801" width="2" style="5" customWidth="1"/>
-    <col min="11802" max="11802" width="12" style="5" customWidth="1"/>
-    <col min="11803" max="11803" width="12.7109375" style="5"/>
-    <col min="11804" max="11804" width="2" style="5" customWidth="1"/>
-    <col min="11805" max="11806" width="16.28515625" style="5" customWidth="1"/>
-    <col min="11807" max="11808" width="12.7109375" style="5"/>
-    <col min="11809" max="11810" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11811" max="12032" width="12.7109375" style="5"/>
-    <col min="12033" max="12033" width="54.28515625" style="5" customWidth="1"/>
-    <col min="12034" max="12034" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12035" max="12035" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="8.5703125" style="5" customWidth="1"/>
-    <col min="12037" max="12037" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="14.85546875" style="5" customWidth="1"/>
-    <col min="12044" max="12044" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12045" width="11.28515625" style="5" customWidth="1"/>
-    <col min="12046" max="12046" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12049" width="14.7109375" style="5" customWidth="1"/>
-    <col min="12050" max="12052" width="14.85546875" style="5" customWidth="1"/>
-    <col min="12053" max="12055" width="14.7109375" style="5" customWidth="1"/>
-    <col min="12056" max="12056" width="10.5703125" style="5" customWidth="1"/>
-    <col min="12057" max="12057" width="2" style="5" customWidth="1"/>
-    <col min="12058" max="12058" width="12" style="5" customWidth="1"/>
-    <col min="12059" max="12059" width="12.7109375" style="5"/>
-    <col min="12060" max="12060" width="2" style="5" customWidth="1"/>
-    <col min="12061" max="12062" width="16.28515625" style="5" customWidth="1"/>
-    <col min="12063" max="12064" width="12.7109375" style="5"/>
-    <col min="12065" max="12066" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12067" max="12288" width="12.7109375" style="5"/>
-    <col min="12289" max="12289" width="54.28515625" style="5" customWidth="1"/>
-    <col min="12290" max="12290" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12291" max="12291" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="8.5703125" style="5" customWidth="1"/>
-    <col min="12293" max="12293" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="14.85546875" style="5" customWidth="1"/>
-    <col min="12300" max="12300" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12301" width="11.28515625" style="5" customWidth="1"/>
-    <col min="12302" max="12302" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12305" width="14.7109375" style="5" customWidth="1"/>
-    <col min="12306" max="12308" width="14.85546875" style="5" customWidth="1"/>
-    <col min="12309" max="12311" width="14.7109375" style="5" customWidth="1"/>
-    <col min="12312" max="12312" width="10.5703125" style="5" customWidth="1"/>
-    <col min="12313" max="12313" width="2" style="5" customWidth="1"/>
-    <col min="12314" max="12314" width="12" style="5" customWidth="1"/>
-    <col min="12315" max="12315" width="12.7109375" style="5"/>
-    <col min="12316" max="12316" width="2" style="5" customWidth="1"/>
-    <col min="12317" max="12318" width="16.28515625" style="5" customWidth="1"/>
-    <col min="12319" max="12320" width="12.7109375" style="5"/>
-    <col min="12321" max="12322" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12323" max="12544" width="12.7109375" style="5"/>
-    <col min="12545" max="12545" width="54.28515625" style="5" customWidth="1"/>
-    <col min="12546" max="12546" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12547" max="12547" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="8.5703125" style="5" customWidth="1"/>
-    <col min="12549" max="12549" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="14.85546875" style="5" customWidth="1"/>
-    <col min="12556" max="12556" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12557" width="11.28515625" style="5" customWidth="1"/>
-    <col min="12558" max="12558" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12561" width="14.7109375" style="5" customWidth="1"/>
-    <col min="12562" max="12564" width="14.85546875" style="5" customWidth="1"/>
-    <col min="12565" max="12567" width="14.7109375" style="5" customWidth="1"/>
-    <col min="12568" max="12568" width="10.5703125" style="5" customWidth="1"/>
-    <col min="12569" max="12569" width="2" style="5" customWidth="1"/>
-    <col min="12570" max="12570" width="12" style="5" customWidth="1"/>
-    <col min="12571" max="12571" width="12.7109375" style="5"/>
-    <col min="12572" max="12572" width="2" style="5" customWidth="1"/>
-    <col min="12573" max="12574" width="16.28515625" style="5" customWidth="1"/>
-    <col min="12575" max="12576" width="12.7109375" style="5"/>
-    <col min="12577" max="12578" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12579" max="12800" width="12.7109375" style="5"/>
-    <col min="12801" max="12801" width="54.28515625" style="5" customWidth="1"/>
-    <col min="12802" max="12802" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12803" max="12803" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="8.5703125" style="5" customWidth="1"/>
-    <col min="12805" max="12805" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="14.85546875" style="5" customWidth="1"/>
-    <col min="12812" max="12812" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="12813" max="12813" width="11.28515625" style="5" customWidth="1"/>
-    <col min="12814" max="12814" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12815" max="12817" width="14.7109375" style="5" customWidth="1"/>
-    <col min="12818" max="12820" width="14.85546875" style="5" customWidth="1"/>
-    <col min="12821" max="12823" width="14.7109375" style="5" customWidth="1"/>
-    <col min="12824" max="12824" width="10.5703125" style="5" customWidth="1"/>
-    <col min="12825" max="12825" width="2" style="5" customWidth="1"/>
-    <col min="12826" max="12826" width="12" style="5" customWidth="1"/>
-    <col min="12827" max="12827" width="12.7109375" style="5"/>
-    <col min="12828" max="12828" width="2" style="5" customWidth="1"/>
-    <col min="12829" max="12830" width="16.28515625" style="5" customWidth="1"/>
-    <col min="12831" max="12832" width="12.7109375" style="5"/>
-    <col min="12833" max="12834" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12835" max="13056" width="12.7109375" style="5"/>
-    <col min="13057" max="13057" width="54.28515625" style="5" customWidth="1"/>
-    <col min="13058" max="13058" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13059" max="13059" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="8.5703125" style="5" customWidth="1"/>
-    <col min="13061" max="13061" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13068" max="13068" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13069" width="11.28515625" style="5" customWidth="1"/>
-    <col min="13070" max="13070" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13073" width="14.7109375" style="5" customWidth="1"/>
-    <col min="13074" max="13076" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13077" max="13079" width="14.7109375" style="5" customWidth="1"/>
-    <col min="13080" max="13080" width="10.5703125" style="5" customWidth="1"/>
-    <col min="13081" max="13081" width="2" style="5" customWidth="1"/>
-    <col min="13082" max="13082" width="12" style="5" customWidth="1"/>
-    <col min="13083" max="13083" width="12.7109375" style="5"/>
-    <col min="13084" max="13084" width="2" style="5" customWidth="1"/>
-    <col min="13085" max="13086" width="16.28515625" style="5" customWidth="1"/>
-    <col min="13087" max="13088" width="12.7109375" style="5"/>
-    <col min="13089" max="13090" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13091" max="13312" width="12.7109375" style="5"/>
-    <col min="13313" max="13313" width="54.28515625" style="5" customWidth="1"/>
-    <col min="13314" max="13314" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13315" max="13315" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="8.5703125" style="5" customWidth="1"/>
-    <col min="13317" max="13317" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13324" max="13324" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13325" width="11.28515625" style="5" customWidth="1"/>
-    <col min="13326" max="13326" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13329" width="14.7109375" style="5" customWidth="1"/>
-    <col min="13330" max="13332" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13333" max="13335" width="14.7109375" style="5" customWidth="1"/>
-    <col min="13336" max="13336" width="10.5703125" style="5" customWidth="1"/>
-    <col min="13337" max="13337" width="2" style="5" customWidth="1"/>
-    <col min="13338" max="13338" width="12" style="5" customWidth="1"/>
-    <col min="13339" max="13339" width="12.7109375" style="5"/>
-    <col min="13340" max="13340" width="2" style="5" customWidth="1"/>
-    <col min="13341" max="13342" width="16.28515625" style="5" customWidth="1"/>
-    <col min="13343" max="13344" width="12.7109375" style="5"/>
-    <col min="13345" max="13346" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13347" max="13568" width="12.7109375" style="5"/>
-    <col min="13569" max="13569" width="54.28515625" style="5" customWidth="1"/>
-    <col min="13570" max="13570" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13571" max="13571" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="8.5703125" style="5" customWidth="1"/>
-    <col min="13573" max="13573" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13580" max="13580" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13581" width="11.28515625" style="5" customWidth="1"/>
-    <col min="13582" max="13582" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13585" width="14.7109375" style="5" customWidth="1"/>
-    <col min="13586" max="13588" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13589" max="13591" width="14.7109375" style="5" customWidth="1"/>
-    <col min="13592" max="13592" width="10.5703125" style="5" customWidth="1"/>
-    <col min="13593" max="13593" width="2" style="5" customWidth="1"/>
-    <col min="13594" max="13594" width="12" style="5" customWidth="1"/>
-    <col min="13595" max="13595" width="12.7109375" style="5"/>
-    <col min="13596" max="13596" width="2" style="5" customWidth="1"/>
-    <col min="13597" max="13598" width="16.28515625" style="5" customWidth="1"/>
-    <col min="13599" max="13600" width="12.7109375" style="5"/>
-    <col min="13601" max="13602" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13603" max="13824" width="12.7109375" style="5"/>
-    <col min="13825" max="13825" width="54.28515625" style="5" customWidth="1"/>
-    <col min="13826" max="13826" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13827" max="13827" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="8.5703125" style="5" customWidth="1"/>
-    <col min="13829" max="13829" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13836" max="13836" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13837" max="13837" width="11.28515625" style="5" customWidth="1"/>
-    <col min="13838" max="13838" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13839" max="13841" width="14.7109375" style="5" customWidth="1"/>
-    <col min="13842" max="13844" width="14.85546875" style="5" customWidth="1"/>
-    <col min="13845" max="13847" width="14.7109375" style="5" customWidth="1"/>
-    <col min="13848" max="13848" width="10.5703125" style="5" customWidth="1"/>
-    <col min="13849" max="13849" width="2" style="5" customWidth="1"/>
-    <col min="13850" max="13850" width="12" style="5" customWidth="1"/>
-    <col min="13851" max="13851" width="12.7109375" style="5"/>
-    <col min="13852" max="13852" width="2" style="5" customWidth="1"/>
-    <col min="13853" max="13854" width="16.28515625" style="5" customWidth="1"/>
-    <col min="13855" max="13856" width="12.7109375" style="5"/>
-    <col min="13857" max="13858" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13859" max="14080" width="12.7109375" style="5"/>
-    <col min="14081" max="14081" width="54.28515625" style="5" customWidth="1"/>
-    <col min="14082" max="14082" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14083" max="14083" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="8.5703125" style="5" customWidth="1"/>
-    <col min="14085" max="14085" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="14.85546875" style="5" customWidth="1"/>
-    <col min="14092" max="14092" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14093" width="11.28515625" style="5" customWidth="1"/>
-    <col min="14094" max="14094" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14097" width="14.7109375" style="5" customWidth="1"/>
-    <col min="14098" max="14100" width="14.85546875" style="5" customWidth="1"/>
-    <col min="14101" max="14103" width="14.7109375" style="5" customWidth="1"/>
-    <col min="14104" max="14104" width="10.5703125" style="5" customWidth="1"/>
-    <col min="14105" max="14105" width="2" style="5" customWidth="1"/>
-    <col min="14106" max="14106" width="12" style="5" customWidth="1"/>
-    <col min="14107" max="14107" width="12.7109375" style="5"/>
-    <col min="14108" max="14108" width="2" style="5" customWidth="1"/>
-    <col min="14109" max="14110" width="16.28515625" style="5" customWidth="1"/>
-    <col min="14111" max="14112" width="12.7109375" style="5"/>
-    <col min="14113" max="14114" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14115" max="14336" width="12.7109375" style="5"/>
-    <col min="14337" max="14337" width="54.28515625" style="5" customWidth="1"/>
-    <col min="14338" max="14338" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14339" max="14339" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="8.5703125" style="5" customWidth="1"/>
-    <col min="14341" max="14341" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="14.85546875" style="5" customWidth="1"/>
-    <col min="14348" max="14348" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14349" width="11.28515625" style="5" customWidth="1"/>
-    <col min="14350" max="14350" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14353" width="14.7109375" style="5" customWidth="1"/>
-    <col min="14354" max="14356" width="14.85546875" style="5" customWidth="1"/>
-    <col min="14357" max="14359" width="14.7109375" style="5" customWidth="1"/>
-    <col min="14360" max="14360" width="10.5703125" style="5" customWidth="1"/>
-    <col min="14361" max="14361" width="2" style="5" customWidth="1"/>
-    <col min="14362" max="14362" width="12" style="5" customWidth="1"/>
-    <col min="14363" max="14363" width="12.7109375" style="5"/>
-    <col min="14364" max="14364" width="2" style="5" customWidth="1"/>
-    <col min="14365" max="14366" width="16.28515625" style="5" customWidth="1"/>
-    <col min="14367" max="14368" width="12.7109375" style="5"/>
-    <col min="14369" max="14370" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14371" max="14592" width="12.7109375" style="5"/>
-    <col min="14593" max="14593" width="54.28515625" style="5" customWidth="1"/>
-    <col min="14594" max="14594" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14595" max="14595" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="8.5703125" style="5" customWidth="1"/>
-    <col min="14597" max="14597" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="14.85546875" style="5" customWidth="1"/>
-    <col min="14604" max="14604" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14605" width="11.28515625" style="5" customWidth="1"/>
-    <col min="14606" max="14606" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14609" width="14.7109375" style="5" customWidth="1"/>
-    <col min="14610" max="14612" width="14.85546875" style="5" customWidth="1"/>
-    <col min="14613" max="14615" width="14.7109375" style="5" customWidth="1"/>
-    <col min="14616" max="14616" width="10.5703125" style="5" customWidth="1"/>
-    <col min="14617" max="14617" width="2" style="5" customWidth="1"/>
-    <col min="14618" max="14618" width="12" style="5" customWidth="1"/>
-    <col min="14619" max="14619" width="12.7109375" style="5"/>
-    <col min="14620" max="14620" width="2" style="5" customWidth="1"/>
-    <col min="14621" max="14622" width="16.28515625" style="5" customWidth="1"/>
-    <col min="14623" max="14624" width="12.7109375" style="5"/>
-    <col min="14625" max="14626" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14627" max="14848" width="12.7109375" style="5"/>
-    <col min="14849" max="14849" width="54.28515625" style="5" customWidth="1"/>
-    <col min="14850" max="14850" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14851" max="14851" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="8.5703125" style="5" customWidth="1"/>
-    <col min="14853" max="14853" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="14.85546875" style="5" customWidth="1"/>
-    <col min="14860" max="14860" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="14861" max="14861" width="11.28515625" style="5" customWidth="1"/>
-    <col min="14862" max="14862" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14863" max="14865" width="14.7109375" style="5" customWidth="1"/>
-    <col min="14866" max="14868" width="14.85546875" style="5" customWidth="1"/>
-    <col min="14869" max="14871" width="14.7109375" style="5" customWidth="1"/>
-    <col min="14872" max="14872" width="10.5703125" style="5" customWidth="1"/>
-    <col min="14873" max="14873" width="2" style="5" customWidth="1"/>
-    <col min="14874" max="14874" width="12" style="5" customWidth="1"/>
-    <col min="14875" max="14875" width="12.7109375" style="5"/>
-    <col min="14876" max="14876" width="2" style="5" customWidth="1"/>
-    <col min="14877" max="14878" width="16.28515625" style="5" customWidth="1"/>
-    <col min="14879" max="14880" width="12.7109375" style="5"/>
-    <col min="14881" max="14882" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14883" max="15104" width="12.7109375" style="5"/>
-    <col min="15105" max="15105" width="54.28515625" style="5" customWidth="1"/>
-    <col min="15106" max="15106" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15107" max="15107" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="8.5703125" style="5" customWidth="1"/>
-    <col min="15109" max="15109" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="14.85546875" style="5" customWidth="1"/>
-    <col min="15116" max="15116" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15117" width="11.28515625" style="5" customWidth="1"/>
-    <col min="15118" max="15118" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15121" width="14.7109375" style="5" customWidth="1"/>
-    <col min="15122" max="15124" width="14.85546875" style="5" customWidth="1"/>
-    <col min="15125" max="15127" width="14.7109375" style="5" customWidth="1"/>
-    <col min="15128" max="15128" width="10.5703125" style="5" customWidth="1"/>
-    <col min="15129" max="15129" width="2" style="5" customWidth="1"/>
-    <col min="15130" max="15130" width="12" style="5" customWidth="1"/>
-    <col min="15131" max="15131" width="12.7109375" style="5"/>
-    <col min="15132" max="15132" width="2" style="5" customWidth="1"/>
-    <col min="15133" max="15134" width="16.28515625" style="5" customWidth="1"/>
-    <col min="15135" max="15136" width="12.7109375" style="5"/>
-    <col min="15137" max="15138" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15139" max="15360" width="12.7109375" style="5"/>
-    <col min="15361" max="15361" width="54.28515625" style="5" customWidth="1"/>
-    <col min="15362" max="15362" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15363" max="15363" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="8.5703125" style="5" customWidth="1"/>
-    <col min="15365" max="15365" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="14.85546875" style="5" customWidth="1"/>
-    <col min="15372" max="15372" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15373" width="11.28515625" style="5" customWidth="1"/>
-    <col min="15374" max="15374" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15377" width="14.7109375" style="5" customWidth="1"/>
-    <col min="15378" max="15380" width="14.85546875" style="5" customWidth="1"/>
-    <col min="15381" max="15383" width="14.7109375" style="5" customWidth="1"/>
-    <col min="15384" max="15384" width="10.5703125" style="5" customWidth="1"/>
-    <col min="15385" max="15385" width="2" style="5" customWidth="1"/>
-    <col min="15386" max="15386" width="12" style="5" customWidth="1"/>
-    <col min="15387" max="15387" width="12.7109375" style="5"/>
-    <col min="15388" max="15388" width="2" style="5" customWidth="1"/>
-    <col min="15389" max="15390" width="16.28515625" style="5" customWidth="1"/>
-    <col min="15391" max="15392" width="12.7109375" style="5"/>
-    <col min="15393" max="15394" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15395" max="15616" width="12.7109375" style="5"/>
-    <col min="15617" max="15617" width="54.28515625" style="5" customWidth="1"/>
-    <col min="15618" max="15618" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15619" max="15619" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="8.5703125" style="5" customWidth="1"/>
-    <col min="15621" max="15621" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="14.85546875" style="5" customWidth="1"/>
-    <col min="15628" max="15628" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15629" width="11.28515625" style="5" customWidth="1"/>
-    <col min="15630" max="15630" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15633" width="14.7109375" style="5" customWidth="1"/>
-    <col min="15634" max="15636" width="14.85546875" style="5" customWidth="1"/>
-    <col min="15637" max="15639" width="14.7109375" style="5" customWidth="1"/>
-    <col min="15640" max="15640" width="10.5703125" style="5" customWidth="1"/>
-    <col min="15641" max="15641" width="2" style="5" customWidth="1"/>
-    <col min="15642" max="15642" width="12" style="5" customWidth="1"/>
-    <col min="15643" max="15643" width="12.7109375" style="5"/>
-    <col min="15644" max="15644" width="2" style="5" customWidth="1"/>
-    <col min="15645" max="15646" width="16.28515625" style="5" customWidth="1"/>
-    <col min="15647" max="15648" width="12.7109375" style="5"/>
-    <col min="15649" max="15650" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15651" max="15872" width="12.7109375" style="5"/>
-    <col min="15873" max="15873" width="54.28515625" style="5" customWidth="1"/>
-    <col min="15874" max="15874" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15875" max="15875" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="8.5703125" style="5" customWidth="1"/>
-    <col min="15877" max="15877" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="14.85546875" style="5" customWidth="1"/>
-    <col min="15884" max="15884" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="15885" max="15885" width="11.28515625" style="5" customWidth="1"/>
-    <col min="15886" max="15886" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15887" max="15889" width="14.7109375" style="5" customWidth="1"/>
-    <col min="15890" max="15892" width="14.85546875" style="5" customWidth="1"/>
-    <col min="15893" max="15895" width="14.7109375" style="5" customWidth="1"/>
-    <col min="15896" max="15896" width="10.5703125" style="5" customWidth="1"/>
-    <col min="15897" max="15897" width="2" style="5" customWidth="1"/>
-    <col min="15898" max="15898" width="12" style="5" customWidth="1"/>
-    <col min="15899" max="15899" width="12.7109375" style="5"/>
-    <col min="15900" max="15900" width="2" style="5" customWidth="1"/>
-    <col min="15901" max="15902" width="16.28515625" style="5" customWidth="1"/>
-    <col min="15903" max="15904" width="12.7109375" style="5"/>
-    <col min="15905" max="15906" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15907" max="16128" width="12.7109375" style="5"/>
-    <col min="16129" max="16129" width="54.28515625" style="5" customWidth="1"/>
-    <col min="16130" max="16130" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="16131" max="16131" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="8.5703125" style="5" customWidth="1"/>
-    <col min="16133" max="16133" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="14.85546875" style="5" customWidth="1"/>
-    <col min="16140" max="16140" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16141" width="11.28515625" style="5" customWidth="1"/>
-    <col min="16142" max="16142" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16145" width="14.7109375" style="5" customWidth="1"/>
-    <col min="16146" max="16148" width="14.85546875" style="5" customWidth="1"/>
-    <col min="16149" max="16151" width="14.7109375" style="5" customWidth="1"/>
-    <col min="16152" max="16152" width="10.5703125" style="5" customWidth="1"/>
-    <col min="16153" max="16153" width="2" style="5" customWidth="1"/>
-    <col min="16154" max="16154" width="12" style="5" customWidth="1"/>
-    <col min="16155" max="16155" width="12.7109375" style="5"/>
-    <col min="16156" max="16156" width="2" style="5" customWidth="1"/>
-    <col min="16157" max="16158" width="16.28515625" style="5" customWidth="1"/>
-    <col min="16159" max="16160" width="12.7109375" style="5"/>
-    <col min="16161" max="16162" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="16163" max="16384" width="12.7109375" style="5"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="28.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="21.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="7.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="7.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="30" width="8.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="30" width="7.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="30" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="30" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="30" width="10.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="30" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="30" width="14.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="30" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="30" width="11.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="30" width="11.28515625" collapsed="true"/>
+    <col min="15" max="17" customWidth="true" style="30" width="14.7109375" collapsed="true"/>
+    <col min="18" max="20" customWidth="true" style="30" width="14.85546875" collapsed="true"/>
+    <col min="21" max="23" customWidth="true" style="30" width="14.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="30" width="10.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="27" max="27" style="5" width="12.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="29" max="30" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="31" max="32" style="5" width="12.7109375" collapsed="true"/>
+    <col min="33" max="34" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="35" max="256" style="5" width="12.7109375" collapsed="true"/>
+    <col min="257" max="257" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="258" max="258" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="259" max="259" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="260" max="260" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="261" max="261" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="262" max="262" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="263" max="263" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="264" max="264" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="265" max="265" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="266" max="266" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="267" max="267" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="268" max="268" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="269" max="269" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="270" max="270" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="271" max="273" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="274" max="276" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="277" max="279" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="280" max="280" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="281" max="281" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="282" max="282" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="283" max="283" style="5" width="12.7109375" collapsed="true"/>
+    <col min="284" max="284" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="285" max="286" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="287" max="288" style="5" width="12.7109375" collapsed="true"/>
+    <col min="289" max="290" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="291" max="512" style="5" width="12.7109375" collapsed="true"/>
+    <col min="513" max="513" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="514" max="514" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="515" max="515" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="516" max="516" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="517" max="517" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="518" max="518" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="519" max="519" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="520" max="520" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="521" max="521" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="522" max="522" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="523" max="523" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="524" max="524" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="525" max="525" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="526" max="526" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="527" max="529" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="530" max="532" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="533" max="535" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="536" max="536" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="537" max="537" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="538" max="538" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="539" max="539" style="5" width="12.7109375" collapsed="true"/>
+    <col min="540" max="540" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="541" max="542" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="543" max="544" style="5" width="12.7109375" collapsed="true"/>
+    <col min="545" max="546" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="547" max="768" style="5" width="12.7109375" collapsed="true"/>
+    <col min="769" max="769" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="770" max="770" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="771" max="771" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="772" max="772" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="773" max="773" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="774" max="774" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="775" max="775" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="776" max="776" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="777" max="777" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="778" max="778" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="779" max="779" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="780" max="780" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="781" max="781" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="782" max="782" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="783" max="785" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="786" max="788" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="789" max="791" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="792" max="792" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="793" max="793" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="794" max="794" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="795" max="795" style="5" width="12.7109375" collapsed="true"/>
+    <col min="796" max="796" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="797" max="798" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="799" max="800" style="5" width="12.7109375" collapsed="true"/>
+    <col min="801" max="802" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="803" max="1024" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1025" max="1025" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="1026" max="1026" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="1027" max="1027" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="1028" max="1028" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="1029" max="1029" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1030" max="1030" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="1031" max="1031" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1032" max="1032" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1033" max="1033" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="1034" max="1034" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="1035" max="1035" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="1036" max="1036" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="1037" max="1037" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1038" max="1038" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1039" max="1041" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1042" max="1044" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="1045" max="1047" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1048" max="1048" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="1049" max="1049" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="1050" max="1050" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="1051" max="1051" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1052" max="1052" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="1053" max="1054" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="1055" max="1056" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1057" max="1058" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="1059" max="1280" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1281" max="1281" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="1282" max="1282" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="1283" max="1283" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="1284" max="1284" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="1285" max="1285" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1286" max="1286" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="1287" max="1287" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1288" max="1288" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1289" max="1289" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="1290" max="1290" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="1291" max="1291" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="1292" max="1292" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="1293" max="1293" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1294" max="1294" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1295" max="1297" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1298" max="1300" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="1301" max="1303" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1304" max="1304" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="1305" max="1305" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="1306" max="1306" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="1307" max="1307" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1308" max="1308" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="1309" max="1310" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="1311" max="1312" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1313" max="1314" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="1315" max="1536" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1537" max="1537" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="1538" max="1538" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="1539" max="1539" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="1540" max="1540" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="1541" max="1541" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1542" max="1542" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="1543" max="1543" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1544" max="1544" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1545" max="1545" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="1546" max="1546" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="1547" max="1547" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="1548" max="1548" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="1549" max="1549" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1550" max="1550" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1551" max="1553" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1554" max="1556" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="1557" max="1559" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1560" max="1560" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="1561" max="1561" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="1562" max="1562" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="1563" max="1563" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1564" max="1564" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="1565" max="1566" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="1567" max="1568" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1569" max="1570" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="1571" max="1792" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1793" max="1793" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="1794" max="1794" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="1795" max="1795" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="1796" max="1796" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="1797" max="1797" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1798" max="1798" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="1799" max="1799" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1800" max="1800" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1801" max="1801" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="1802" max="1802" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="1803" max="1803" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="1804" max="1804" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="1805" max="1805" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1806" max="1806" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="1807" max="1809" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1810" max="1812" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="1813" max="1815" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="1816" max="1816" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="1817" max="1817" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="1818" max="1818" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="1819" max="1819" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1820" max="1820" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="1821" max="1822" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="1823" max="1824" style="5" width="12.7109375" collapsed="true"/>
+    <col min="1825" max="1826" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="1827" max="2048" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2049" max="2049" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="2050" max="2050" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="2051" max="2051" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="2052" max="2052" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="2053" max="2053" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2054" max="2054" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="2055" max="2055" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2056" max="2056" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2057" max="2057" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="2058" max="2058" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="2059" max="2059" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2060" max="2060" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2061" max="2061" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2062" max="2062" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2063" max="2065" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2066" max="2068" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2069" max="2071" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2072" max="2072" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="2073" max="2073" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="2074" max="2074" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2075" max="2075" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2076" max="2076" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="2077" max="2078" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="2079" max="2080" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2081" max="2082" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="2083" max="2304" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2305" max="2305" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="2306" max="2306" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="2307" max="2307" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="2308" max="2308" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="2309" max="2309" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2310" max="2310" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="2311" max="2311" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2312" max="2312" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2313" max="2313" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="2314" max="2314" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="2315" max="2315" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2316" max="2316" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2317" max="2317" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2318" max="2318" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2319" max="2321" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2322" max="2324" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2325" max="2327" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2328" max="2328" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="2329" max="2329" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="2330" max="2330" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2331" max="2331" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2332" max="2332" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="2333" max="2334" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="2335" max="2336" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2337" max="2338" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="2339" max="2560" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2561" max="2561" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="2562" max="2562" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="2563" max="2563" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="2564" max="2564" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="2565" max="2565" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2566" max="2566" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="2567" max="2567" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2568" max="2568" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2569" max="2569" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="2570" max="2570" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="2571" max="2571" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2572" max="2572" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2573" max="2573" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2574" max="2574" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2575" max="2577" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2578" max="2580" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2581" max="2583" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2584" max="2584" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="2585" max="2585" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="2586" max="2586" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2587" max="2587" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2588" max="2588" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="2589" max="2590" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="2591" max="2592" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2593" max="2594" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="2595" max="2816" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2817" max="2817" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="2818" max="2818" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="2819" max="2819" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="2820" max="2820" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="2821" max="2821" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2822" max="2822" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="2823" max="2823" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2824" max="2824" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2825" max="2825" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="2826" max="2826" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="2827" max="2827" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2828" max="2828" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2829" max="2829" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2830" max="2830" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="2831" max="2833" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2834" max="2836" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2837" max="2839" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="2840" max="2840" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="2841" max="2841" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="2842" max="2842" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2843" max="2843" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2844" max="2844" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="2845" max="2846" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="2847" max="2848" style="5" width="12.7109375" collapsed="true"/>
+    <col min="2849" max="2850" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="2851" max="3072" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3073" max="3073" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="3074" max="3074" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="3075" max="3075" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="3076" max="3076" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="3077" max="3077" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3078" max="3078" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="3079" max="3079" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3080" max="3080" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3081" max="3081" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="3082" max="3082" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="3083" max="3083" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="3084" max="3084" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="3085" max="3085" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3086" max="3086" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3087" max="3089" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3090" max="3092" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="3093" max="3095" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3096" max="3096" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="3097" max="3097" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="3098" max="3098" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="3099" max="3099" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3100" max="3100" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="3101" max="3102" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="3103" max="3104" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3105" max="3106" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="3107" max="3328" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3329" max="3329" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="3330" max="3330" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="3331" max="3331" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="3332" max="3332" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="3333" max="3333" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3334" max="3334" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="3335" max="3335" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3336" max="3336" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3337" max="3337" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="3338" max="3338" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="3339" max="3339" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="3340" max="3340" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="3341" max="3341" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3342" max="3342" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3343" max="3345" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3346" max="3348" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="3349" max="3351" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3352" max="3352" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="3353" max="3353" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="3354" max="3354" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="3355" max="3355" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3356" max="3356" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="3357" max="3358" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="3359" max="3360" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3361" max="3362" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="3363" max="3584" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3585" max="3585" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="3586" max="3586" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="3587" max="3587" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="3588" max="3588" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="3589" max="3589" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3590" max="3590" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="3591" max="3591" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3592" max="3592" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3593" max="3593" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="3594" max="3594" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="3595" max="3595" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="3596" max="3596" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="3597" max="3597" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3598" max="3598" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3599" max="3601" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3602" max="3604" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="3605" max="3607" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3608" max="3608" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="3609" max="3609" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="3610" max="3610" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="3611" max="3611" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3612" max="3612" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="3613" max="3614" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="3615" max="3616" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3617" max="3618" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="3619" max="3840" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3841" max="3841" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="3842" max="3842" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="3843" max="3843" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="3844" max="3844" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="3845" max="3845" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3846" max="3846" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="3847" max="3847" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3848" max="3848" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3849" max="3849" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="3850" max="3850" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="3851" max="3851" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="3852" max="3852" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="3853" max="3853" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3854" max="3854" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="3855" max="3857" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3858" max="3860" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="3861" max="3863" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="3864" max="3864" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="3865" max="3865" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="3866" max="3866" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="3867" max="3867" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3868" max="3868" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="3869" max="3870" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="3871" max="3872" style="5" width="12.7109375" collapsed="true"/>
+    <col min="3873" max="3874" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="3875" max="4096" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4097" max="4097" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="4098" max="4098" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="4099" max="4099" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="4100" max="4100" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="4101" max="4101" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4102" max="4102" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="4103" max="4103" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4104" max="4104" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4105" max="4105" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="4106" max="4106" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="4107" max="4107" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="4108" max="4108" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="4109" max="4109" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4110" max="4110" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4111" max="4113" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4114" max="4116" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="4117" max="4119" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4120" max="4120" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="4121" max="4121" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="4122" max="4122" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="4123" max="4123" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4124" max="4124" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="4125" max="4126" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="4127" max="4128" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4129" max="4130" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="4131" max="4352" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4353" max="4353" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="4354" max="4354" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="4355" max="4355" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="4356" max="4356" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="4357" max="4357" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4358" max="4358" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="4359" max="4359" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4360" max="4360" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4361" max="4361" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="4362" max="4362" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="4363" max="4363" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="4364" max="4364" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="4365" max="4365" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4366" max="4366" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4367" max="4369" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4370" max="4372" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="4373" max="4375" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4376" max="4376" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="4377" max="4377" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="4378" max="4378" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="4379" max="4379" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4380" max="4380" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="4381" max="4382" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="4383" max="4384" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4385" max="4386" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="4387" max="4608" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4609" max="4609" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="4610" max="4610" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="4611" max="4611" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="4612" max="4612" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="4613" max="4613" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4614" max="4614" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="4615" max="4615" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4616" max="4616" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4617" max="4617" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="4618" max="4618" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="4619" max="4619" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="4620" max="4620" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="4621" max="4621" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4622" max="4622" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4623" max="4625" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4626" max="4628" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="4629" max="4631" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4632" max="4632" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="4633" max="4633" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="4634" max="4634" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="4635" max="4635" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4636" max="4636" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="4637" max="4638" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="4639" max="4640" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4641" max="4642" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="4643" max="4864" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4865" max="4865" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="4866" max="4866" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="4867" max="4867" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="4868" max="4868" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="4869" max="4869" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4870" max="4870" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="4871" max="4871" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4872" max="4872" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4873" max="4873" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="4874" max="4874" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="4875" max="4875" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="4876" max="4876" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="4877" max="4877" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4878" max="4878" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="4879" max="4881" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4882" max="4884" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="4885" max="4887" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4888" max="4888" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="4889" max="4889" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="4890" max="4890" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="4891" max="4891" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4892" max="4892" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="4893" max="4894" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="4895" max="4896" style="5" width="12.7109375" collapsed="true"/>
+    <col min="4897" max="4898" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="4899" max="5120" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5121" max="5121" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="5122" max="5122" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="5123" max="5123" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="5124" max="5124" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="5125" max="5125" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5126" max="5126" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="5127" max="5127" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5128" max="5128" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5129" max="5129" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="5130" max="5130" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="5131" max="5131" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="5132" max="5132" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="5133" max="5133" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5134" max="5134" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5135" max="5137" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5138" max="5140" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="5141" max="5143" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5144" max="5144" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="5145" max="5145" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="5146" max="5146" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="5147" max="5147" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5148" max="5148" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="5149" max="5150" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="5151" max="5152" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5153" max="5154" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="5155" max="5376" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5377" max="5377" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="5378" max="5378" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="5379" max="5379" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="5380" max="5380" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="5381" max="5381" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5382" max="5382" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="5383" max="5383" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5384" max="5384" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5385" max="5385" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="5386" max="5386" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="5387" max="5387" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="5388" max="5388" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="5389" max="5389" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5390" max="5390" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5391" max="5393" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5394" max="5396" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="5397" max="5399" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5400" max="5400" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="5401" max="5401" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="5402" max="5402" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="5403" max="5403" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5404" max="5404" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="5405" max="5406" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="5407" max="5408" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5409" max="5410" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="5411" max="5632" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5633" max="5633" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="5634" max="5634" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="5635" max="5635" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="5636" max="5636" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="5637" max="5637" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5638" max="5638" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="5639" max="5639" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5640" max="5640" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5641" max="5641" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="5642" max="5642" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="5643" max="5643" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="5644" max="5644" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="5645" max="5645" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5646" max="5646" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5647" max="5649" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5650" max="5652" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="5653" max="5655" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5656" max="5656" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="5657" max="5657" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="5658" max="5658" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="5659" max="5659" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5660" max="5660" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="5661" max="5662" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="5663" max="5664" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5665" max="5666" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="5667" max="5888" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5889" max="5889" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="5890" max="5890" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="5891" max="5891" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="5892" max="5892" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="5893" max="5893" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5894" max="5894" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="5895" max="5895" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5896" max="5896" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5897" max="5897" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="5898" max="5898" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="5899" max="5899" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="5900" max="5900" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="5901" max="5901" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5902" max="5902" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="5903" max="5905" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5906" max="5908" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="5909" max="5911" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="5912" max="5912" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="5913" max="5913" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="5914" max="5914" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="5915" max="5915" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5916" max="5916" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="5917" max="5918" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="5919" max="5920" style="5" width="12.7109375" collapsed="true"/>
+    <col min="5921" max="5922" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="5923" max="6144" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6145" max="6145" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="6146" max="6146" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="6147" max="6147" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="6148" max="6148" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="6149" max="6149" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6150" max="6150" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="6151" max="6151" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6152" max="6152" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6153" max="6153" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="6154" max="6154" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="6155" max="6155" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="6156" max="6156" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="6157" max="6157" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6158" max="6158" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6159" max="6161" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6162" max="6164" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="6165" max="6167" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6168" max="6168" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="6169" max="6169" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="6170" max="6170" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="6171" max="6171" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6172" max="6172" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="6173" max="6174" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="6175" max="6176" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6177" max="6178" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="6179" max="6400" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6401" max="6401" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="6402" max="6402" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="6403" max="6403" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="6404" max="6404" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="6405" max="6405" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6406" max="6406" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="6407" max="6407" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6408" max="6408" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6409" max="6409" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="6410" max="6410" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="6411" max="6411" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="6412" max="6412" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="6413" max="6413" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6414" max="6414" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6415" max="6417" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6418" max="6420" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="6421" max="6423" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6424" max="6424" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="6425" max="6425" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="6426" max="6426" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="6427" max="6427" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6428" max="6428" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="6429" max="6430" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="6431" max="6432" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6433" max="6434" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="6435" max="6656" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6657" max="6657" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="6658" max="6658" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="6659" max="6659" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="6660" max="6660" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="6661" max="6661" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6662" max="6662" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="6663" max="6663" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6664" max="6664" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6665" max="6665" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="6666" max="6666" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="6667" max="6667" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="6668" max="6668" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="6669" max="6669" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6670" max="6670" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6671" max="6673" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6674" max="6676" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="6677" max="6679" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6680" max="6680" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="6681" max="6681" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="6682" max="6682" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="6683" max="6683" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6684" max="6684" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="6685" max="6686" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="6687" max="6688" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6689" max="6690" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="6691" max="6912" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6913" max="6913" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="6914" max="6914" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="6915" max="6915" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="6916" max="6916" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="6917" max="6917" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6918" max="6918" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="6919" max="6919" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6920" max="6920" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6921" max="6921" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="6922" max="6922" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="6923" max="6923" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="6924" max="6924" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="6925" max="6925" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6926" max="6926" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="6927" max="6929" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6930" max="6932" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="6933" max="6935" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="6936" max="6936" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="6937" max="6937" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="6938" max="6938" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="6939" max="6939" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6940" max="6940" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="6941" max="6942" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="6943" max="6944" style="5" width="12.7109375" collapsed="true"/>
+    <col min="6945" max="6946" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="6947" max="7168" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7169" max="7169" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="7170" max="7170" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="7171" max="7171" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="7172" max="7172" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="7173" max="7173" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7174" max="7174" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="7175" max="7175" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7176" max="7176" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7177" max="7177" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="7178" max="7178" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="7179" max="7179" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="7180" max="7180" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="7181" max="7181" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7182" max="7182" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7183" max="7185" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7186" max="7188" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="7189" max="7191" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7192" max="7192" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="7193" max="7193" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="7194" max="7194" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="7195" max="7195" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7196" max="7196" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="7197" max="7198" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="7199" max="7200" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7201" max="7202" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="7203" max="7424" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7425" max="7425" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="7426" max="7426" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="7427" max="7427" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="7428" max="7428" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="7429" max="7429" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7430" max="7430" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="7431" max="7431" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7432" max="7432" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7433" max="7433" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="7434" max="7434" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="7435" max="7435" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="7436" max="7436" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="7437" max="7437" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7438" max="7438" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7439" max="7441" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7442" max="7444" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="7445" max="7447" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7448" max="7448" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="7449" max="7449" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="7450" max="7450" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="7451" max="7451" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7452" max="7452" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="7453" max="7454" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="7455" max="7456" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7457" max="7458" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="7459" max="7680" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7681" max="7681" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="7682" max="7682" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="7683" max="7683" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="7684" max="7684" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="7685" max="7685" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7686" max="7686" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="7687" max="7687" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7688" max="7688" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7689" max="7689" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="7690" max="7690" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="7691" max="7691" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="7692" max="7692" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="7693" max="7693" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7694" max="7694" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7695" max="7697" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7698" max="7700" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="7701" max="7703" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7704" max="7704" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="7705" max="7705" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="7706" max="7706" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="7707" max="7707" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7708" max="7708" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="7709" max="7710" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="7711" max="7712" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7713" max="7714" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="7715" max="7936" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7937" max="7937" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="7938" max="7938" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="7939" max="7939" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="7940" max="7940" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="7941" max="7941" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7942" max="7942" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="7943" max="7943" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7944" max="7944" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7945" max="7945" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="7946" max="7946" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="7947" max="7947" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="7948" max="7948" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="7949" max="7949" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7950" max="7950" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="7951" max="7953" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7954" max="7956" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="7957" max="7959" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="7960" max="7960" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="7961" max="7961" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="7962" max="7962" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="7963" max="7963" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7964" max="7964" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="7965" max="7966" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="7967" max="7968" style="5" width="12.7109375" collapsed="true"/>
+    <col min="7969" max="7970" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="7971" max="8192" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8193" max="8193" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="8194" max="8194" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="8195" max="8195" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="8196" max="8196" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="8197" max="8197" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8198" max="8198" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="8199" max="8199" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8200" max="8200" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8201" max="8201" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="8202" max="8202" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="8203" max="8203" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="8204" max="8204" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="8205" max="8205" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8206" max="8206" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8207" max="8209" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8210" max="8212" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="8213" max="8215" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8216" max="8216" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="8217" max="8217" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="8218" max="8218" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="8219" max="8219" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8220" max="8220" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="8221" max="8222" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="8223" max="8224" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8225" max="8226" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="8227" max="8448" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8449" max="8449" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="8450" max="8450" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="8451" max="8451" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="8452" max="8452" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="8453" max="8453" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8454" max="8454" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="8455" max="8455" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8456" max="8456" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8457" max="8457" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="8458" max="8458" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="8459" max="8459" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="8460" max="8460" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="8461" max="8461" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8462" max="8462" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8463" max="8465" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8466" max="8468" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="8469" max="8471" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8472" max="8472" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="8473" max="8473" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="8474" max="8474" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="8475" max="8475" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8476" max="8476" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="8477" max="8478" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="8479" max="8480" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8481" max="8482" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="8483" max="8704" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8705" max="8705" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="8706" max="8706" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="8707" max="8707" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="8708" max="8708" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="8709" max="8709" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8710" max="8710" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="8711" max="8711" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8712" max="8712" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8713" max="8713" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="8714" max="8714" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="8715" max="8715" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="8716" max="8716" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="8717" max="8717" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8718" max="8718" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8719" max="8721" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8722" max="8724" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="8725" max="8727" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8728" max="8728" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="8729" max="8729" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="8730" max="8730" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="8731" max="8731" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8732" max="8732" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="8733" max="8734" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="8735" max="8736" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8737" max="8738" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="8739" max="8960" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8961" max="8961" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="8962" max="8962" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="8963" max="8963" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="8964" max="8964" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="8965" max="8965" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8966" max="8966" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="8967" max="8967" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8968" max="8968" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8969" max="8969" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="8970" max="8970" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="8971" max="8971" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="8972" max="8972" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="8973" max="8973" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8974" max="8974" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="8975" max="8977" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8978" max="8980" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="8981" max="8983" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="8984" max="8984" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="8985" max="8985" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="8986" max="8986" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="8987" max="8987" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8988" max="8988" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="8989" max="8990" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="8991" max="8992" style="5" width="12.7109375" collapsed="true"/>
+    <col min="8993" max="8994" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="8995" max="9216" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9217" max="9217" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="9218" max="9218" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="9219" max="9219" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="9220" max="9220" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="9221" max="9221" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9222" max="9222" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="9223" max="9223" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="9224" max="9224" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9225" max="9225" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="9226" max="9226" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="9227" max="9227" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="9228" max="9228" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="9229" max="9229" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9230" max="9230" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9231" max="9233" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="9234" max="9236" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="9237" max="9239" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="9240" max="9240" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="9241" max="9241" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="9242" max="9242" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="9243" max="9243" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9244" max="9244" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="9245" max="9246" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="9247" max="9248" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9249" max="9250" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="9251" max="9472" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9473" max="9473" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="9474" max="9474" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="9475" max="9475" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="9476" max="9476" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="9477" max="9477" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9478" max="9478" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="9479" max="9479" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="9480" max="9480" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9481" max="9481" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="9482" max="9482" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="9483" max="9483" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="9484" max="9484" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="9485" max="9485" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9486" max="9486" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9487" max="9489" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="9490" max="9492" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="9493" max="9495" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="9496" max="9496" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="9497" max="9497" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="9498" max="9498" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="9499" max="9499" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9500" max="9500" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="9501" max="9502" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="9503" max="9504" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9505" max="9506" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="9507" max="9728" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9729" max="9729" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="9730" max="9730" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="9731" max="9731" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="9732" max="9732" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="9733" max="9733" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9734" max="9734" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="9735" max="9735" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="9736" max="9736" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9737" max="9737" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="9738" max="9738" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="9739" max="9739" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="9740" max="9740" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="9741" max="9741" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9742" max="9742" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9743" max="9745" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="9746" max="9748" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="9749" max="9751" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="9752" max="9752" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="9753" max="9753" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="9754" max="9754" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="9755" max="9755" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9756" max="9756" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="9757" max="9758" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="9759" max="9760" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9761" max="9762" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="9763" max="9984" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9985" max="9985" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="9986" max="9986" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="9987" max="9987" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="9988" max="9988" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="9989" max="9989" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="9990" max="9990" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="9991" max="9991" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="9992" max="9992" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9993" max="9993" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="9994" max="9994" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="9995" max="9995" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="9996" max="9996" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="9997" max="9997" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9998" max="9998" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="9999" max="10001" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="10002" max="10004" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="10005" max="10007" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="10008" max="10008" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="10009" max="10009" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="10010" max="10010" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="10011" max="10011" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10012" max="10012" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="10013" max="10014" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="10015" max="10016" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10017" max="10018" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="10019" max="10240" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10241" max="10241" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="10242" max="10242" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="10243" max="10243" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="10244" max="10244" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="10245" max="10245" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10246" max="10246" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="10247" max="10247" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="10248" max="10248" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="10249" max="10249" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="10250" max="10250" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="10251" max="10251" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="10252" max="10252" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="10253" max="10253" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="10254" max="10254" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="10255" max="10257" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="10258" max="10260" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="10261" max="10263" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="10264" max="10264" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="10265" max="10265" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="10266" max="10266" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="10267" max="10267" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10268" max="10268" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="10269" max="10270" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="10271" max="10272" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10273" max="10274" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="10275" max="10496" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10497" max="10497" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="10498" max="10498" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="10499" max="10499" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="10500" max="10500" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="10501" max="10501" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10502" max="10502" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="10503" max="10503" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="10504" max="10504" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="10505" max="10505" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="10506" max="10506" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="10507" max="10507" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="10508" max="10508" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="10509" max="10509" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="10510" max="10510" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="10511" max="10513" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="10514" max="10516" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="10517" max="10519" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="10520" max="10520" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="10521" max="10521" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="10522" max="10522" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="10523" max="10523" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10524" max="10524" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="10525" max="10526" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="10527" max="10528" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10529" max="10530" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="10531" max="10752" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10753" max="10753" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="10754" max="10754" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="10755" max="10755" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="10756" max="10756" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="10757" max="10757" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10758" max="10758" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="10759" max="10759" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="10760" max="10760" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="10761" max="10761" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="10762" max="10762" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="10763" max="10763" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="10764" max="10764" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="10765" max="10765" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="10766" max="10766" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="10767" max="10769" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="10770" max="10772" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="10773" max="10775" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="10776" max="10776" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="10777" max="10777" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="10778" max="10778" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="10779" max="10779" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10780" max="10780" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="10781" max="10782" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="10783" max="10784" style="5" width="12.7109375" collapsed="true"/>
+    <col min="10785" max="10786" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="10787" max="11008" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11009" max="11009" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="11010" max="11010" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="11011" max="11011" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="11012" max="11012" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="11013" max="11013" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11014" max="11014" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="11015" max="11015" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11016" max="11016" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11017" max="11017" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="11018" max="11018" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="11019" max="11019" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="11020" max="11020" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="11021" max="11021" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11022" max="11022" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11023" max="11025" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11026" max="11028" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="11029" max="11031" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11032" max="11032" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="11033" max="11033" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="11034" max="11034" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="11035" max="11035" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11036" max="11036" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="11037" max="11038" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="11039" max="11040" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11041" max="11042" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="11043" max="11264" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11265" max="11265" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="11266" max="11266" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="11267" max="11267" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="11268" max="11268" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="11269" max="11269" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11270" max="11270" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="11271" max="11271" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11272" max="11272" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11273" max="11273" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="11274" max="11274" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="11275" max="11275" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="11276" max="11276" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="11277" max="11277" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11278" max="11278" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11279" max="11281" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11282" max="11284" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="11285" max="11287" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11288" max="11288" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="11289" max="11289" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="11290" max="11290" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="11291" max="11291" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11292" max="11292" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="11293" max="11294" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="11295" max="11296" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11297" max="11298" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="11299" max="11520" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11521" max="11521" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="11522" max="11522" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="11523" max="11523" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="11524" max="11524" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="11525" max="11525" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11526" max="11526" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="11527" max="11527" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11528" max="11528" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11529" max="11529" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="11530" max="11530" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="11531" max="11531" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="11532" max="11532" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="11533" max="11533" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11534" max="11534" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11535" max="11537" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11538" max="11540" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="11541" max="11543" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11544" max="11544" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="11545" max="11545" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="11546" max="11546" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="11547" max="11547" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11548" max="11548" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="11549" max="11550" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="11551" max="11552" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11553" max="11554" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="11555" max="11776" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11777" max="11777" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="11778" max="11778" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="11779" max="11779" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="11780" max="11780" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="11781" max="11781" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11782" max="11782" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="11783" max="11783" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11784" max="11784" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11785" max="11785" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="11786" max="11786" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="11787" max="11787" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="11788" max="11788" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="11789" max="11789" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11790" max="11790" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="11791" max="11793" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11794" max="11796" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="11797" max="11799" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="11800" max="11800" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="11801" max="11801" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="11802" max="11802" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="11803" max="11803" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11804" max="11804" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="11805" max="11806" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="11807" max="11808" style="5" width="12.7109375" collapsed="true"/>
+    <col min="11809" max="11810" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="11811" max="12032" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12033" max="12033" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="12034" max="12034" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="12035" max="12035" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="12036" max="12036" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="12037" max="12037" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12038" max="12038" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="12039" max="12039" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12040" max="12040" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12041" max="12041" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="12042" max="12042" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="12043" max="12043" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="12044" max="12044" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="12045" max="12045" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12046" max="12046" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12047" max="12049" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12050" max="12052" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="12053" max="12055" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12056" max="12056" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="12057" max="12057" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="12058" max="12058" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="12059" max="12059" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12060" max="12060" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="12061" max="12062" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="12063" max="12064" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12065" max="12066" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="12067" max="12288" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12289" max="12289" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="12290" max="12290" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="12291" max="12291" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="12292" max="12292" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="12293" max="12293" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12294" max="12294" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="12295" max="12295" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12296" max="12296" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12297" max="12297" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="12298" max="12298" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="12299" max="12299" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="12300" max="12300" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="12301" max="12301" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12302" max="12302" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12303" max="12305" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12306" max="12308" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="12309" max="12311" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12312" max="12312" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="12313" max="12313" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="12314" max="12314" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="12315" max="12315" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12316" max="12316" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="12317" max="12318" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="12319" max="12320" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12321" max="12322" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="12323" max="12544" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12545" max="12545" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="12546" max="12546" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="12547" max="12547" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="12548" max="12548" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="12549" max="12549" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12550" max="12550" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="12551" max="12551" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12552" max="12552" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12553" max="12553" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="12554" max="12554" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="12555" max="12555" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="12556" max="12556" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="12557" max="12557" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12558" max="12558" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12559" max="12561" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12562" max="12564" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="12565" max="12567" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12568" max="12568" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="12569" max="12569" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="12570" max="12570" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="12571" max="12571" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12572" max="12572" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="12573" max="12574" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="12575" max="12576" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12577" max="12578" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="12579" max="12800" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12801" max="12801" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="12802" max="12802" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="12803" max="12803" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="12804" max="12804" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="12805" max="12805" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12806" max="12806" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="12807" max="12807" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12808" max="12808" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12809" max="12809" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="12810" max="12810" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="12811" max="12811" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="12812" max="12812" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="12813" max="12813" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12814" max="12814" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="12815" max="12817" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12818" max="12820" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="12821" max="12823" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="12824" max="12824" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="12825" max="12825" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="12826" max="12826" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="12827" max="12827" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12828" max="12828" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="12829" max="12830" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="12831" max="12832" style="5" width="12.7109375" collapsed="true"/>
+    <col min="12833" max="12834" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="12835" max="13056" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13057" max="13057" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="13058" max="13058" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="13059" max="13059" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="13060" max="13060" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="13061" max="13061" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13062" max="13062" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="13063" max="13063" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13064" max="13064" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13065" max="13065" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="13066" max="13066" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="13067" max="13067" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="13068" max="13068" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="13069" max="13069" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13070" max="13070" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13071" max="13073" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13074" max="13076" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="13077" max="13079" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13080" max="13080" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="13081" max="13081" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="13082" max="13082" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="13083" max="13083" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13084" max="13084" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="13085" max="13086" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="13087" max="13088" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13089" max="13090" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="13091" max="13312" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13313" max="13313" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="13314" max="13314" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="13315" max="13315" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="13316" max="13316" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="13317" max="13317" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13318" max="13318" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="13319" max="13319" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13320" max="13320" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13321" max="13321" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="13322" max="13322" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="13323" max="13323" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="13324" max="13324" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="13325" max="13325" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13326" max="13326" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13327" max="13329" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13330" max="13332" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="13333" max="13335" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13336" max="13336" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="13337" max="13337" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="13338" max="13338" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="13339" max="13339" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13340" max="13340" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="13341" max="13342" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="13343" max="13344" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13345" max="13346" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="13347" max="13568" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13569" max="13569" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="13570" max="13570" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="13571" max="13571" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="13572" max="13572" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="13573" max="13573" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13574" max="13574" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="13575" max="13575" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13576" max="13576" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13577" max="13577" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="13578" max="13578" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="13579" max="13579" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="13580" max="13580" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="13581" max="13581" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13582" max="13582" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13583" max="13585" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13586" max="13588" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="13589" max="13591" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13592" max="13592" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="13593" max="13593" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="13594" max="13594" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="13595" max="13595" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13596" max="13596" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="13597" max="13598" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="13599" max="13600" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13601" max="13602" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="13603" max="13824" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13825" max="13825" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="13826" max="13826" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="13827" max="13827" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="13828" max="13828" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="13829" max="13829" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13830" max="13830" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="13831" max="13831" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13832" max="13832" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13833" max="13833" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="13834" max="13834" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="13835" max="13835" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="13836" max="13836" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="13837" max="13837" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13838" max="13838" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="13839" max="13841" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13842" max="13844" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="13845" max="13847" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="13848" max="13848" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="13849" max="13849" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="13850" max="13850" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="13851" max="13851" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13852" max="13852" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="13853" max="13854" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="13855" max="13856" style="5" width="12.7109375" collapsed="true"/>
+    <col min="13857" max="13858" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="13859" max="14080" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14081" max="14081" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="14082" max="14082" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="14083" max="14083" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="14084" max="14084" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="14085" max="14085" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14086" max="14086" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="14087" max="14087" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14088" max="14088" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14089" max="14089" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="14090" max="14090" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="14091" max="14091" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="14092" max="14092" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="14093" max="14093" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14094" max="14094" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14095" max="14097" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14098" max="14100" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="14101" max="14103" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14104" max="14104" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="14105" max="14105" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="14106" max="14106" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="14107" max="14107" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14108" max="14108" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="14109" max="14110" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="14111" max="14112" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14113" max="14114" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="14115" max="14336" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14337" max="14337" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="14338" max="14338" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="14339" max="14339" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="14340" max="14340" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="14341" max="14341" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14342" max="14342" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="14343" max="14343" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14344" max="14344" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14345" max="14345" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="14346" max="14346" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="14347" max="14347" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="14348" max="14348" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="14349" max="14349" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14350" max="14350" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14351" max="14353" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14354" max="14356" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="14357" max="14359" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14360" max="14360" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="14361" max="14361" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="14362" max="14362" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="14363" max="14363" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14364" max="14364" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="14365" max="14366" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="14367" max="14368" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14369" max="14370" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="14371" max="14592" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14593" max="14593" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="14594" max="14594" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="14595" max="14595" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="14596" max="14596" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="14597" max="14597" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14598" max="14598" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="14599" max="14599" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14600" max="14600" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14601" max="14601" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="14602" max="14602" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="14603" max="14603" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="14604" max="14604" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="14605" max="14605" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14606" max="14606" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14607" max="14609" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14610" max="14612" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="14613" max="14615" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14616" max="14616" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="14617" max="14617" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="14618" max="14618" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="14619" max="14619" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14620" max="14620" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="14621" max="14622" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="14623" max="14624" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14625" max="14626" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="14627" max="14848" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14849" max="14849" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="14850" max="14850" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="14851" max="14851" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="14852" max="14852" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="14853" max="14853" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14854" max="14854" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="14855" max="14855" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14856" max="14856" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14857" max="14857" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="14858" max="14858" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="14859" max="14859" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="14860" max="14860" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="14861" max="14861" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14862" max="14862" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="14863" max="14865" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14866" max="14868" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="14869" max="14871" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="14872" max="14872" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="14873" max="14873" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="14874" max="14874" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="14875" max="14875" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14876" max="14876" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="14877" max="14878" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="14879" max="14880" style="5" width="12.7109375" collapsed="true"/>
+    <col min="14881" max="14882" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="14883" max="15104" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15105" max="15105" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="15106" max="15106" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="15107" max="15107" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="15108" max="15108" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="15109" max="15109" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15110" max="15110" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="15111" max="15111" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15112" max="15112" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15113" max="15113" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="15114" max="15114" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="15115" max="15115" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="15116" max="15116" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="15117" max="15117" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15118" max="15118" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15119" max="15121" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15122" max="15124" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="15125" max="15127" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15128" max="15128" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="15129" max="15129" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="15130" max="15130" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="15131" max="15131" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15132" max="15132" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="15133" max="15134" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="15135" max="15136" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15137" max="15138" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="15139" max="15360" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15361" max="15361" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="15362" max="15362" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="15363" max="15363" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="15364" max="15364" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="15365" max="15365" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15366" max="15366" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="15367" max="15367" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15368" max="15368" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15369" max="15369" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="15370" max="15370" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="15371" max="15371" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="15372" max="15372" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="15373" max="15373" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15374" max="15374" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15375" max="15377" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15378" max="15380" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="15381" max="15383" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15384" max="15384" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="15385" max="15385" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="15386" max="15386" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="15387" max="15387" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15388" max="15388" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="15389" max="15390" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="15391" max="15392" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15393" max="15394" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="15395" max="15616" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15617" max="15617" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="15618" max="15618" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="15619" max="15619" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="15620" max="15620" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="15621" max="15621" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15622" max="15622" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="15623" max="15623" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15624" max="15624" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15625" max="15625" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="15626" max="15626" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="15627" max="15627" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="15628" max="15628" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="15629" max="15629" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15630" max="15630" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15631" max="15633" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15634" max="15636" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="15637" max="15639" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15640" max="15640" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="15641" max="15641" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="15642" max="15642" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="15643" max="15643" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15644" max="15644" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="15645" max="15646" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="15647" max="15648" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15649" max="15650" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="15651" max="15872" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15873" max="15873" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="15874" max="15874" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="15875" max="15875" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="15876" max="15876" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="15877" max="15877" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15878" max="15878" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="15879" max="15879" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15880" max="15880" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15881" max="15881" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="15882" max="15882" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="15883" max="15883" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="15884" max="15884" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="15885" max="15885" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15886" max="15886" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="15887" max="15889" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15890" max="15892" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="15893" max="15895" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="15896" max="15896" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="15897" max="15897" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="15898" max="15898" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="15899" max="15899" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15900" max="15900" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="15901" max="15902" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="15903" max="15904" style="5" width="12.7109375" collapsed="true"/>
+    <col min="15905" max="15906" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="15907" max="16128" style="5" width="12.7109375" collapsed="true"/>
+    <col min="16129" max="16129" customWidth="true" style="5" width="54.28515625" collapsed="true"/>
+    <col min="16130" max="16130" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="16131" max="16131" bestFit="true" customWidth="true" style="5" width="7.7109375" collapsed="true"/>
+    <col min="16132" max="16132" customWidth="true" style="5" width="8.5703125" collapsed="true"/>
+    <col min="16133" max="16133" bestFit="true" customWidth="true" style="5" width="12.7109375" collapsed="true"/>
+    <col min="16134" max="16134" bestFit="true" customWidth="true" style="5" width="9.85546875" collapsed="true"/>
+    <col min="16135" max="16135" bestFit="true" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="16136" max="16136" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="16137" max="16137" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="16138" max="16138" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="16139" max="16139" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="16140" max="16140" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="16141" max="16141" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="16142" max="16142" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="true"/>
+    <col min="16143" max="16145" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="16146" max="16148" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="16149" max="16151" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="16152" max="16152" customWidth="true" style="5" width="10.5703125" collapsed="true"/>
+    <col min="16153" max="16153" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="16154" max="16154" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="16155" max="16155" style="5" width="12.7109375" collapsed="true"/>
+    <col min="16156" max="16156" customWidth="true" style="5" width="2.0" collapsed="true"/>
+    <col min="16157" max="16158" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="16159" max="16160" style="5" width="12.7109375" collapsed="true"/>
+    <col min="16161" max="16162" customWidth="true" hidden="true" style="5" width="0.0" collapsed="true"/>
+    <col min="16163" max="16384" style="5" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" x14ac:dyDescent="0.25">
@@ -2668,7 +2681,9 @@
         <v>1</v>
       </c>
       <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
+      <c r="C4" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
@@ -2746,7 +2761,9 @@
         <v>6</v>
       </c>
       <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
+      <c r="C6" s="33" t="s">
+        <v>42</v>
+      </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -3065,8 +3082,12 @@
       <c r="AD13" s="24"/>
     </row>
     <row r="14" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -3157,98 +3178,20 @@
       <c r="AC16" s="24"/>
       <c r="AD16" s="24"/>
     </row>
-    <row r="17" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
